--- a/Consumer_staples_result.xlsx
+++ b/Consumer_staples_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0084905101353554</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C2">
-        <v>0.3620178041543027</v>
+        <v>-0.004000909889298576</v>
       </c>
       <c r="D2">
-        <v>0.005295134960513185</v>
+        <v>-0.002522877432971221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.004000909889298576</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C3">
-        <v>0.7240356083086054</v>
+        <v>0.0042092142922181</v>
       </c>
       <c r="D3">
-        <v>0.005799271552795192</v>
+        <v>0.002654229173414029</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0042092142922181</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C4">
-        <v>1.086053412462908</v>
+        <v>0.006867054012379192</v>
       </c>
       <c r="D4">
-        <v>0.01287008127002479</v>
+        <v>0.00433019889929669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006867054012379192</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C5">
-        <v>1.448071216617211</v>
+        <v>-0.002087989645651156</v>
       </c>
       <c r="D5">
-        <v>0.006036360617513687</v>
+        <v>-0.00131663599107312</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.002087989645651156</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C6">
-        <v>1.810089020771513</v>
+        <v>-0.008482933314359009</v>
       </c>
       <c r="D6">
-        <v>0.005483001822031944</v>
+        <v>-0.005349133476222359</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.008482933314359009</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C7">
-        <v>2.172106824925816</v>
+        <v>-0.006273886171605625</v>
       </c>
       <c r="D7">
-        <v>0.009738146526275349</v>
+        <v>-0.003956161542580752</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.006273886171605625</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C8">
-        <v>2.534124629080118</v>
+        <v>0.003657270925758738</v>
       </c>
       <c r="D8">
-        <v>0.00879525554690435</v>
+        <v>0.002306186977501785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.003657270925758738</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C9">
-        <v>2.896142433234421</v>
+        <v>0.00272113757888004</v>
       </c>
       <c r="D9">
-        <v>0.002966468855912114</v>
+        <v>0.001715883831357661</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00272113757888004</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C10">
-        <v>3.258160237388724</v>
+        <v>0.004276036412861117</v>
       </c>
       <c r="D10">
-        <v>0.002082099468161136</v>
+        <v>0.002696365593592966</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004276036412861117</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C11">
-        <v>3.620178041543026</v>
+        <v>-0.001510167880894642</v>
       </c>
       <c r="D11">
-        <v>0.0008377240788503266</v>
+        <v>-0.0009522755003549981</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.001510167880894642</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C12">
-        <v>3.982195845697329</v>
+        <v>0.003208549627744972</v>
       </c>
       <c r="D12">
-        <v>0.007575079458435963</v>
+        <v>0.00202323413233012</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.003208549627744972</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C13">
-        <v>4.344213649851631</v>
+        <v>0.001124888711380834</v>
       </c>
       <c r="D13">
-        <v>0.002757919061675024</v>
+        <v>0.0007093277337081745</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.001124888711380834</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C14">
-        <v>4.706231454005934</v>
+        <v>0.002815322037428736</v>
       </c>
       <c r="D14">
-        <v>0.004909322574155146</v>
+        <v>0.001775274282925861</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.002815322037428736</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C15">
-        <v>5.334174939092276</v>
+        <v>0.006858230513391739</v>
       </c>
       <c r="D15">
-        <v>0.009502567583029215</v>
+        <v>0.004710374728666478</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.006858230513391739</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C16">
-        <v>5.962118424178618</v>
+        <v>-0.0005825808495680818</v>
       </c>
       <c r="D16">
-        <v>0.01382586010886024</v>
+        <v>-0.0004001285908737132</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.0005825808495680818</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C17">
-        <v>6.59006190926496</v>
+        <v>0.003627035627233433</v>
       </c>
       <c r="D17">
-        <v>0.01273341264858439</v>
+        <v>0.002491123173117739</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.003627035627233433</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C18">
-        <v>7.218005394351302</v>
+        <v>-0.0003586953775291946</v>
       </c>
       <c r="D18">
-        <v>0.01144323554307271</v>
+        <v>-0.0002463594127237075</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.0003586953775291946</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C19">
-        <v>7.845948879437644</v>
+        <v>-0.0003759141593038251</v>
       </c>
       <c r="D19">
-        <v>0.009649815646018941</v>
+        <v>-0.0002581856285925484</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.0003759141593038251</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C20">
-        <v>8.473892364523985</v>
+        <v>-0.001145700755458279</v>
       </c>
       <c r="D20">
-        <v>0.01283103638162447</v>
+        <v>-0.0007868910026554123</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.001145700755458279</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C21">
-        <v>8.835910168678287</v>
+        <v>0.0008551248148105373</v>
       </c>
       <c r="D21">
-        <v>0.01245021077700544</v>
+        <v>0.0005392211165339245</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0008551248148105373</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C22">
-        <v>9.19792797283259</v>
+        <v>-0.00748141723520046</v>
       </c>
       <c r="D22">
-        <v>0.0101305653859774</v>
+        <v>-0.004717601553540168</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.00748141723520046</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C23">
-        <v>9.559945776986892</v>
+        <v>0.009138276926379696</v>
       </c>
       <c r="D23">
-        <v>-0.0003294375338500702</v>
+        <v>0.005762377377073797</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.009138276926379696</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C24">
-        <v>9.921963581141194</v>
+        <v>0.0008700325531547648</v>
       </c>
       <c r="D24">
-        <v>-0.004438145612128306</v>
+        <v>0.0005486215773505727</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0008700325531547648</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C25">
-        <v>10.2839813852955</v>
+        <v>0.0122027139575529</v>
       </c>
       <c r="D25">
-        <v>-0.002540511193154199</v>
+        <v>0.007694737576284284</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0122027139575529</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C26">
-        <v>10.6459991894498</v>
+        <v>-0.01179354864906301</v>
       </c>
       <c r="D26">
-        <v>-0.01074785102061353</v>
+        <v>-0.007436727785585193</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01179354864906301</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C27">
-        <v>11.0080169936041</v>
+        <v>-0.0009549796087293672</v>
       </c>
       <c r="D27">
-        <v>-0.003122193375605623</v>
+        <v>-0.0006021871450429979</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.0009549796087293672</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C28">
-        <v>11.3700347977584</v>
+        <v>0.007343474898971358</v>
       </c>
       <c r="D28">
-        <v>0.001375622141730329</v>
+        <v>0.00463061843801073</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007343474898971358</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C29">
-        <v>11.7320526019127</v>
+        <v>-0.001627229323734269</v>
       </c>
       <c r="D29">
-        <v>0.007821289580897062</v>
+        <v>-0.001026091627331785</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.001627229323734269</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C30">
-        <v>12.09407040606701</v>
+        <v>-0.01005924633164046</v>
       </c>
       <c r="D30">
-        <v>0.01249904856189939</v>
+        <v>-0.006343118506786331</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.01005924633164046</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C31">
-        <v>12.45608821022131</v>
+        <v>-0.001526233501270013</v>
       </c>
       <c r="D31">
-        <v>0.01837824450714165</v>
+        <v>-0.0009624060936983073</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.001526233501270013</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C32">
-        <v>12.81810601437561</v>
+        <v>-0.002147527304344976</v>
       </c>
       <c r="D32">
-        <v>0.01838791297307564</v>
+        <v>-0.001354179004959122</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.002147527304344976</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C33">
-        <v>13.18012381852991</v>
+        <v>0.01162724268016024</v>
       </c>
       <c r="D33">
-        <v>0.02074220972308578</v>
+        <v>0.007331859246297304</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01162724268016024</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C34">
-        <v>13.54214162268421</v>
+        <v>-0.008313394471087143</v>
       </c>
       <c r="D34">
-        <v>0.02098288928580091</v>
+        <v>-0.005242226364205992</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.008313394471087143</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C35">
-        <v>13.90415942683852</v>
+        <v>0.003712864964545481</v>
       </c>
       <c r="D35">
-        <v>0.02159857381286603</v>
+        <v>0.002341243239638044</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.003712864964545481</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C36">
-        <v>14.26617723099282</v>
+        <v>0.007926964127413783</v>
       </c>
       <c r="D36">
-        <v>0.02179084114473047</v>
+        <v>0.004998552694854805</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007926964127413783</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C37">
-        <v>14.62819503514712</v>
+        <v>0.00746108354733277</v>
       </c>
       <c r="D37">
-        <v>0.02056885851615519</v>
+        <v>0.004704779619612666</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.00746108354733277</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C38">
-        <v>14.99021283930142</v>
+        <v>-0.001885332006448692</v>
       </c>
       <c r="D38">
-        <v>0.01723623136692604</v>
+        <v>-0.00118884496385437</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.001885332006448692</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C39">
-        <v>15.35223064345572</v>
+        <v>-0.002226571326729321</v>
       </c>
       <c r="D39">
-        <v>0.01960485073060465</v>
+        <v>-0.001404022262068744</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.002226571326729321</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C40">
-        <v>15.71424844761003</v>
+        <v>-0.003095061369874585</v>
       </c>
       <c r="D40">
-        <v>0.0242749576626155</v>
+        <v>-0.001951671169751472</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.003095061369874585</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C41">
-        <v>16.07626625176433</v>
+        <v>0.00549011050005177</v>
       </c>
       <c r="D41">
-        <v>0.02239606658523879</v>
+        <v>0.003461931477673754</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.00549011050005177</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C42">
-        <v>16.43828405591863</v>
+        <v>-0.0006572240106468286</v>
       </c>
       <c r="D42">
-        <v>0.02409479825593661</v>
+        <v>-0.0004144296349444681</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.0006572240106468286</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C43">
-        <v>16.80030186007293</v>
+        <v>-0.004003214670124322</v>
       </c>
       <c r="D43">
-        <v>0.02375752233993361</v>
+        <v>-0.002524330772260059</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.004003214670124322</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C44">
-        <v>17.16231966422724</v>
+        <v>-0.0180517407100913</v>
       </c>
       <c r="D44">
-        <v>0.01487168270969416</v>
+        <v>-0.0113829929999552</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.0180517407100913</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C45">
-        <v>17.52433746838154</v>
+        <v>-0.007090756422442723</v>
       </c>
       <c r="D45">
-        <v>0.01543803387679805</v>
+        <v>-0.004471260252255455</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.007090756422442723</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C46">
-        <v>17.88635527253584</v>
+        <v>0.00327491347339226</v>
       </c>
       <c r="D46">
-        <v>0.01587580973821086</v>
+        <v>0.002065081575332162</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.00327491347339226</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C47">
-        <v>18.24837307669014</v>
+        <v>-0.01416412324360472</v>
       </c>
       <c r="D47">
-        <v>0.0188149922177184</v>
+        <v>-0.008931555040690577</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01416412324360472</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C48">
-        <v>18.61039088084445</v>
+        <v>0.01316026349196076</v>
       </c>
       <c r="D48">
-        <v>0.02420016040125322</v>
+        <v>0.008298545254575483</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01316026349196076</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C49">
-        <v>18.97240868499875</v>
+        <v>0.007762273118190777</v>
       </c>
       <c r="D49">
-        <v>0.03279153348523861</v>
+        <v>0.004894702510252217</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.007762273118190777</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C50">
-        <v>19.33442648915305</v>
+        <v>0.0111238513227141</v>
       </c>
       <c r="D50">
-        <v>0.02963424566736066</v>
+        <v>0.007014432778120515</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.0111238513227141</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C51">
-        <v>19.69644429330735</v>
+        <v>0.008072817271330912</v>
       </c>
       <c r="D51">
-        <v>0.03071969834175314</v>
+        <v>0.005090524175217473</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.008072817271330912</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C52">
-        <v>20.05846209746165</v>
+        <v>0.01014624198490033</v>
       </c>
       <c r="D52">
-        <v>0.02698593185359328</v>
+        <v>0.006397975870848183</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.01014624198490033</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C53">
-        <v>20.42047990161596</v>
+        <v>1.668571619362069e-05</v>
       </c>
       <c r="D53">
-        <v>0.03165754317506339</v>
+        <v>1.052161083418657e-05</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.668571619362069e-05</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C54">
-        <v>20.78249770577026</v>
+        <v>0.004063015547083104</v>
       </c>
       <c r="D54">
-        <v>0.03323833328584457</v>
+        <v>0.002562039765245565</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.004063015547083104</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C55">
-        <v>21.14451550992456</v>
+        <v>0.0004153617445092905</v>
       </c>
       <c r="D55">
-        <v>0.03536413140813896</v>
+        <v>0.0002619171140407168</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0004153617445092905</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C56">
-        <v>21.50653331407886</v>
+        <v>0.001062540567816406</v>
       </c>
       <c r="D56">
-        <v>0.03665687985126935</v>
+        <v>0.0006700124957401627</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.001062540567816406</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C57">
-        <v>21.86855111823316</v>
+        <v>0.0003318125289677454</v>
       </c>
       <c r="D57">
-        <v>0.0367291963208975</v>
+        <v>0.0002092329906126917</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.0003318125289677454</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C58">
-        <v>22.23056892238747</v>
+        <v>-0.002108882161157233</v>
       </c>
       <c r="D58">
-        <v>0.03589188936016668</v>
+        <v>-0.001329810308252636</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.002108882161157233</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C59">
-        <v>22.59258672654177</v>
+        <v>-0.005751405773248841</v>
       </c>
       <c r="D59">
-        <v>0.04110454318068293</v>
+        <v>-0.003626697984876072</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.005751405773248841</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C60">
-        <v>22.95460453069607</v>
+        <v>0.004087733332557519</v>
       </c>
       <c r="D60">
-        <v>0.03678084592072491</v>
+        <v>0.002577626205553361</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004087733332557519</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C61">
-        <v>23.31662233485037</v>
+        <v>0.008059611461987082</v>
       </c>
       <c r="D61">
-        <v>0.03337335068022498</v>
+        <v>0.005082196909845468</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.008059611461987082</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C62">
-        <v>23.67864013900467</v>
+        <v>-0.003242566451584494</v>
       </c>
       <c r="D62">
-        <v>0.03736935582233677</v>
+        <v>-0.002044684322307064</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.003242566451584494</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C63">
-        <v>24.30658362409102</v>
+        <v>0.002664307325825455</v>
       </c>
       <c r="D63">
-        <v>0.03330065255915331</v>
+        <v>0.001829901440679724</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.002664307325825455</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C64">
-        <v>24.93452710917736</v>
+        <v>-0.0005289868372573281</v>
       </c>
       <c r="D64">
-        <v>0.03305133891025826</v>
+        <v>-0.0003633191134577134</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.0005289868372573281</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C65">
-        <v>25.5624705942637</v>
+        <v>-0.0139366375698593</v>
       </c>
       <c r="D65">
-        <v>0.04058108412922408</v>
+        <v>-0.009571971266271045</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.0139366375698593</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C66">
-        <v>26.19041407935004</v>
+        <v>0.0008882706960333664</v>
       </c>
       <c r="D66">
-        <v>0.04218090166446257</v>
+        <v>0.0006100827072873219</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0008882706960333664</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C67">
-        <v>26.81835756443638</v>
+        <v>0.0006866119321555786</v>
       </c>
       <c r="D67">
-        <v>0.04334746573486811</v>
+        <v>0.0004715792925465589</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0006866119321555786</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C68">
-        <v>27.44630104952272</v>
+        <v>0.004609842476694936</v>
       </c>
       <c r="D68">
-        <v>0.03053196372145889</v>
+        <v>0.003166135268121574</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004609842476694936</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C69">
-        <v>28.07424453460906</v>
+        <v>0.00844615031890239</v>
       </c>
       <c r="D69">
-        <v>0.02743681715155885</v>
+        <v>0.005800990931843246</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.00844615031890239</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C70">
-        <v>28.7021880196954</v>
+        <v>0.0134747933657815</v>
       </c>
       <c r="D70">
-        <v>0.02819107468492753</v>
+        <v>0.009254767103590711</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0134747933657815</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C71">
-        <v>29.33013150478174</v>
+        <v>-0.004951921017317673</v>
       </c>
       <c r="D71">
-        <v>0.01078549116668755</v>
+        <v>-0.003401081893176259</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.004951921017317673</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C72">
-        <v>29.95807498986808</v>
+        <v>0.001702434564625932</v>
       </c>
       <c r="D72">
-        <v>0.01692098454533807</v>
+        <v>0.001169267310972384</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001702434564625932</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C73">
-        <v>30.58601847495443</v>
+        <v>-0.0058560757881434</v>
       </c>
       <c r="D73">
-        <v>0.02428443758323662</v>
+        <v>-0.004022074111939476</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.0058560757881434</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C74">
-        <v>31.21396196004077</v>
+        <v>0.007327000774695058</v>
       </c>
       <c r="D74">
-        <v>0.03194903599705847</v>
+        <v>0.005032335850865844</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.007327000774695058</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C75">
-        <v>31.84190544512711</v>
+        <v>0.002479326632567336</v>
       </c>
       <c r="D75">
-        <v>0.028253889221583</v>
+        <v>0.001702852870190172</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.002479326632567336</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C76">
-        <v>32.46984893021345</v>
+        <v>0.003334122515139981</v>
       </c>
       <c r="D76">
-        <v>0.02412640872774793</v>
+        <v>0.002289944382436103</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003334122515139981</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C77">
-        <v>33.09779241529979</v>
+        <v>0.002027559270774582</v>
       </c>
       <c r="D77">
-        <v>0.0316887809238821</v>
+        <v>0.001392569691450454</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.002027559270774582</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C78">
-        <v>33.72573590038613</v>
+        <v>0.0001134218565130851</v>
       </c>
       <c r="D78">
-        <v>0.02149739183462138</v>
+        <v>7.790047965790135e-05</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0001134218565130851</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C79">
-        <v>34.35367938547247</v>
+        <v>-0.001313240406310534</v>
       </c>
       <c r="D79">
-        <v>0.03106373497677316</v>
+        <v>-0.0009019607040722844</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.001313240406310534</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C80">
-        <v>34.98162287055882</v>
+        <v>0.008175577108825216</v>
       </c>
       <c r="D80">
-        <v>0.03819441948729838</v>
+        <v>0.005615155648454473</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.008175577108825216</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C81">
-        <v>35.60956635564516</v>
+        <v>-0.006781328966231293</v>
       </c>
       <c r="D81">
-        <v>0.04414441312975222</v>
+        <v>-0.004657557153691038</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.006781328966231293</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C82">
-        <v>36.2375098407315</v>
+        <v>-0.005344348780081276</v>
       </c>
       <c r="D82">
-        <v>0.0363675319221538</v>
+        <v>-0.003670609406569015</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.005344348780081276</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C83">
-        <v>36.86545332581784</v>
+        <v>0.006267373451506408</v>
       </c>
       <c r="D83">
-        <v>0.03855504938185285</v>
+        <v>0.004304561863799331</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.006267373451506408</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C84">
-        <v>37.49339681090418</v>
+        <v>-0.006381393893867049</v>
       </c>
       <c r="D84">
-        <v>0.04130970398519412</v>
+        <v>-0.004382873464612136</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.006381393893867049</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C85">
-        <v>38.12134029599052</v>
+        <v>-0.0003910259593302712</v>
       </c>
       <c r="D85">
-        <v>0.03076140964050866</v>
+        <v>-0.0002685647257678678</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.0003910259593302712</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C86">
-        <v>38.74928378107686</v>
+        <v>0.01180972586462037</v>
       </c>
       <c r="D86">
-        <v>0.03789545725930866</v>
+        <v>0.008111164265558595</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.01180972586462037</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C87">
-        <v>39.3772272661632</v>
+        <v>0.002509169430725322</v>
       </c>
       <c r="D87">
-        <v>0.03603668770595417</v>
+        <v>0.001723349521914197</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.002509169430725322</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C88">
-        <v>40.00517075124954</v>
+        <v>0.001829650469487909</v>
       </c>
       <c r="D88">
-        <v>0.04200675733459292</v>
+        <v>0.001256641828667028</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.001829650469487909</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C89">
-        <v>40.63311423633589</v>
+        <v>-0.02009995839097467</v>
       </c>
       <c r="D89">
-        <v>0.04198626663897739</v>
+        <v>-0.01380506762891987</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.02009995839097467</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C90">
-        <v>41.26105772142223</v>
+        <v>-0.004854458077714341</v>
       </c>
       <c r="D90">
-        <v>0.0409198419961008</v>
+        <v>-0.00333414232811022</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.004854458077714341</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C91">
-        <v>41.88900120650857</v>
+        <v>0.001182984874172455</v>
       </c>
       <c r="D91">
-        <v>0.04414441312975222</v>
+        <v>0.0008124985074234318</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.001182984874172455</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C92">
-        <v>42.51694469159491</v>
+        <v>-0.02729908700581518</v>
       </c>
       <c r="D92">
-        <v>0.04999892528606598</v>
+        <v>-0.01874957823257323</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.02729908700581518</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C93">
-        <v>43.14488817668125</v>
+        <v>0.00962296767539339</v>
       </c>
       <c r="D93">
-        <v>0.045297201091068</v>
+        <v>0.006609253460413445</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.00962296767539339</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C94">
-        <v>43.77283166176759</v>
+        <v>0.01154891158542171</v>
       </c>
       <c r="D94">
-        <v>0.04831719413765474</v>
+        <v>0.007932031617973501</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01154891158542171</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C95">
-        <v>44.40077514685393</v>
+        <v>0.01202123093111407</v>
       </c>
       <c r="D95">
-        <v>0.04660050127888479</v>
+        <v>0.008256430324821474</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01202123093111407</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C96">
-        <v>45.02871863194027</v>
+        <v>-0.0057955042539799</v>
       </c>
       <c r="D96">
-        <v>0.04270304945192306</v>
+        <v>-0.003980472328032798</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.0057955042539799</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C97">
-        <v>45.65666211702661</v>
+        <v>-0.006473580675875112</v>
       </c>
       <c r="D97">
-        <v>0.045297201091068</v>
+        <v>-0.004446189255389358</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.006473580675875112</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C98">
-        <v>46.28460560211295</v>
+        <v>0.011860898333933</v>
       </c>
       <c r="D98">
-        <v>0.04723083085875807</v>
+        <v>0.008146310577101058</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.011860898333933</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C99">
-        <v>46.9125490871993</v>
+        <v>-0.01598427407884895</v>
       </c>
       <c r="D99">
-        <v>0.04240619433258168</v>
+        <v>-0.01097833042066314</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.01598427407884895</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C100">
-        <v>47.54049257228564</v>
+        <v>0.015003945917206</v>
       </c>
       <c r="D100">
-        <v>0.03627449933693395</v>
+        <v>0.0103050207397788</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.015003945917206</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C101">
-        <v>48.16843605737198</v>
+        <v>0.01118383515610688</v>
       </c>
       <c r="D101">
-        <v>0.03975910511349322</v>
+        <v>0.007681289566752202</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.01118383515610688</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C102">
-        <v>48.79637954245832</v>
+        <v>0.009332028079333199</v>
       </c>
       <c r="D102">
-        <v>0.03991330691959925</v>
+        <v>0.006409430121408672</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.009332028079333199</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C103">
-        <v>49.42432302754466</v>
+        <v>-0.01219733636034892</v>
       </c>
       <c r="D103">
-        <v>0.03989274883341966</v>
+        <v>-0.00837738318020145</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.01219733636034892</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C104">
-        <v>50.052266512631</v>
+        <v>0.00343092372608389</v>
       </c>
       <c r="D104">
-        <v>0.03848293971932315</v>
+        <v>0.002356429458556561</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.00343092372608389</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C105">
-        <v>50.68020999771734</v>
+        <v>0.004320427155388273</v>
       </c>
       <c r="D105">
-        <v>0.04079667814103746</v>
+        <v>0.00296735883258039</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.004320427155388273</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C106">
-        <v>51.30815348280368</v>
+        <v>-0.01654404776356699</v>
       </c>
       <c r="D106">
-        <v>0.0422628354821252</v>
+        <v>-0.01136279457845425</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.01654404776356699</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C107">
-        <v>51.93609696789002</v>
+        <v>0.01118910988793687</v>
       </c>
       <c r="D107">
-        <v>0.04350080223177616</v>
+        <v>0.0076849123617959</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01118910988793687</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C108">
-        <v>52.56404045297636</v>
+        <v>-0.002915312302377515</v>
       </c>
       <c r="D108">
-        <v>0.04667169873603529</v>
+        <v>-0.002002296856087776</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.002915312302377515</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C109">
-        <v>53.19198393806271</v>
+        <v>0.009363515451934923</v>
       </c>
       <c r="D109">
-        <v>0.04615279226561757</v>
+        <v>0.006431056300914545</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.009363515451934923</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C110">
-        <v>53.81992742314905</v>
+        <v>-3.21378069187972e-05</v>
       </c>
       <c r="D110">
-        <v>0.0491890061772291</v>
+        <v>-2.207291126325811e-05</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-3.21378069187972e-05</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C111">
-        <v>54.44787090823539</v>
+        <v>-0.001672590814351338</v>
       </c>
       <c r="D111">
-        <v>0.04739339545026386</v>
+        <v>-0.001148770005314957</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.001672590814351338</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C112">
-        <v>55.07581439332173</v>
+        <v>0.005057448826219613</v>
       </c>
       <c r="D112">
-        <v>0.03534342611368474</v>
+        <v>0.00347356057747429</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.005057448826219613</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C113">
-        <v>55.70375787840807</v>
+        <v>0.009182273984915668</v>
       </c>
       <c r="D113">
-        <v>0.03991330691959927</v>
+        <v>0.006306575908433287</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.009182273984915668</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C114">
-        <v>56.33170136349441</v>
+        <v>-0.00737423009932936</v>
       </c>
       <c r="D114">
-        <v>0.04972569259076873</v>
+        <v>-0.005064773928993284</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.00737423009932936</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C115">
-        <v>56.95964484858075</v>
+        <v>0.004736586558522049</v>
       </c>
       <c r="D115">
-        <v>0.04465475340442454</v>
+        <v>0.003253185727985924</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.004736586558522049</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C116">
-        <v>57.58758833366709</v>
+        <v>-0.002692477828434292</v>
       </c>
       <c r="D116">
-        <v>0.03870954263060809</v>
+        <v>-0.001849249525192689</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.002692477828434292</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C117">
-        <v>58.21553181875343</v>
+        <v>-0.00611280147049964</v>
       </c>
       <c r="D117">
-        <v>0.04352124431208288</v>
+        <v>-0.004198398626551402</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.00611280147049964</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C118">
-        <v>58.84347530383977</v>
+        <v>0.004068692740411883</v>
       </c>
       <c r="D118">
-        <v>0.04482817608595595</v>
+        <v>0.002794462423758166</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.004068692740411883</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C119">
-        <v>59.47141878892612</v>
+        <v>0.003032723792907532</v>
       </c>
       <c r="D119">
-        <v>0.04419546554310014</v>
+        <v>0.002082937499001096</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003032723792907532</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C120">
-        <v>60.09936227401246</v>
+        <v>-0.007567006998731252</v>
       </c>
       <c r="D120">
-        <v>0.0414635312772795</v>
+        <v>-0.005197177095296931</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.007567006998731252</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C121">
-        <v>60.7273057590988</v>
+        <v>-0.009617010254433289</v>
       </c>
       <c r="D121">
-        <v>0.03890518035425335</v>
+        <v>-0.00660516178033887</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.009617010254433289</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C122">
-        <v>61.35524924418514</v>
+        <v>0.005465289697157871</v>
       </c>
       <c r="D122">
-        <v>0.03945058957429475</v>
+        <v>0.003753674132717686</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.005465289697157871</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C123">
-        <v>61.98319272927148</v>
+        <v>0.0002418516171509566</v>
       </c>
       <c r="D123">
-        <v>0.04195552936076443</v>
+        <v>0.0001661086986345096</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0002418516171509566</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C124">
-        <v>62.61113621435782</v>
+        <v>-3.224350293695721e-05</v>
       </c>
       <c r="D124">
-        <v>0.04315318655207662</v>
+        <v>-2.214550547715767e-05</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-3.224350293695721e-05</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C125">
-        <v>63.23907969944416</v>
+        <v>-0.002211158369208377</v>
       </c>
       <c r="D125">
-        <v>0.0452360434796209</v>
+        <v>-0.001518669354006241</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.002211158369208377</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C126">
-        <v>63.8670231845305</v>
+        <v>0.003628889914370603</v>
       </c>
       <c r="D126">
-        <v>0.04541949871802496</v>
+        <v>0.002492396735919917</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003628889914370603</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C127">
-        <v>64.49496666961684</v>
+        <v>0.002299535478177184</v>
       </c>
       <c r="D127">
-        <v>0.0484186289000617</v>
+        <v>0.001579368582453929</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.002299535478177184</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C128">
-        <v>65.12291015470319</v>
+        <v>0.001941639128249406</v>
       </c>
       <c r="D128">
-        <v>0.05022147279286836</v>
+        <v>0.001333557958432186</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001941639128249406</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C129">
-        <v>65.75085363978954</v>
+        <v>0.00497326501380968</v>
       </c>
       <c r="D129">
-        <v>0.04686490890999784</v>
+        <v>0.003415741391933027</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.00497326501380968</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C130">
-        <v>66.37879712487589</v>
+        <v>-0.0008138579708614202</v>
       </c>
       <c r="D130">
-        <v>0.04570476865410736</v>
+        <v>-0.0005589745067891451</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.0008138579708614202</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C131">
-        <v>67.00674060996224</v>
+        <v>0.004762027521484136</v>
       </c>
       <c r="D131">
-        <v>0.04543987937538284</v>
+        <v>0.003270659108149445</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.004762027521484136</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C132">
-        <v>67.63468409504858</v>
+        <v>-0.002816253382865952</v>
       </c>
       <c r="D132">
-        <v>0.04839834323853033</v>
+        <v>-0.001934261138973113</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.002816253382865952</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C133">
-        <v>68.26262758013493</v>
+        <v>-0.01889928947179254</v>
       </c>
       <c r="D133">
-        <v>0.04706822480793053</v>
+        <v>-0.01298042335320365</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.01889928947179254</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C134">
-        <v>68.89057106522128</v>
+        <v>0.007167445641574233</v>
       </c>
       <c r="D134">
-        <v>0.0470783889011357</v>
+        <v>0.004922750081560801</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.007167445641574233</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C135">
-        <v>69.51851455030763</v>
+        <v>0.01538984142020627</v>
       </c>
       <c r="D135">
-        <v>0.04108402346889216</v>
+        <v>0.01057006176190385</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01538984142020627</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C136">
-        <v>70.14645803539398</v>
+        <v>-0.007953310493965304</v>
       </c>
       <c r="D136">
-        <v>0.04267234671025535</v>
+        <v>-0.005462498334936354</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.007953310493965304</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C137">
-        <v>70.77440152048032</v>
+        <v>-0.009324526581498738</v>
       </c>
       <c r="D137">
-        <v>0.04601027344419671</v>
+        <v>-0.006404277937363881</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.009324526581498738</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C138">
-        <v>71.40234500556667</v>
+        <v>0.007546719862103757</v>
       </c>
       <c r="D138">
-        <v>0.04356212650658711</v>
+        <v>0.005183243469779305</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.007546719862103757</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C139">
-        <v>72.03028849065302</v>
+        <v>0.002049804545089629</v>
       </c>
       <c r="D139">
-        <v>0.04368475736424603</v>
+        <v>0.001407848206478674</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.002049804545089629</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C140">
-        <v>72.65823197573937</v>
+        <v>-0.0009923493883912116</v>
       </c>
       <c r="D140">
-        <v>0.04226843096211732</v>
+        <v>-0.0006815661083362893</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.0009923493883912116</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C141">
-        <v>73.28617546082572</v>
+        <v>-0.004284792356352263</v>
       </c>
       <c r="D141">
-        <v>0.04392629013279936</v>
+        <v>-0.002942884114719482</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.004284792356352263</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C142">
-        <v>73.91411894591207</v>
+        <v>-0.004012542547965126</v>
       </c>
       <c r="D142">
-        <v>0.05005237303928816</v>
+        <v>-0.002755897308894425</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.004012542547965126</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C143">
-        <v>74.54206243099841</v>
+        <v>0.0008554251419425896</v>
       </c>
       <c r="D143">
-        <v>0.04910539117648026</v>
+        <v>0.0005875237006111627</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0008554251419425896</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C144">
-        <v>75.17000591608476</v>
+        <v>0.003928772000289626</v>
       </c>
       <c r="D144">
-        <v>0.04968318788254029</v>
+        <v>0.002698361962130165</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.003928772000289626</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C145">
-        <v>75.79794940117111</v>
+        <v>0.001878417223674766</v>
       </c>
       <c r="D145">
-        <v>0.0530987042891449</v>
+        <v>0.001290135845246424</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001878417223674766</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C146">
-        <v>76.42589288625746</v>
+        <v>0.003266773126342493</v>
       </c>
       <c r="D146">
-        <v>0.05151448228600914</v>
+        <v>0.002243687427619061</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.003266773126342493</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C147">
-        <v>77.05383637134381</v>
+        <v>0.0002877329857753352</v>
       </c>
       <c r="D147">
-        <v>0.05268536986814405</v>
+        <v>0.0001976209726624677</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.0002877329857753352</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C148">
-        <v>77.68177985643015</v>
+        <v>0.004703865038215405</v>
       </c>
       <c r="D148">
-        <v>0.04926763259335946</v>
+        <v>0.003230711910281051</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.004703865038215405</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C149">
-        <v>78.3097233415165</v>
+        <v>0.002827597950741279</v>
       </c>
       <c r="D149">
-        <v>0.04836464038876638</v>
+        <v>0.001942052823099686</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.002827597950741279</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C150">
-        <v>78.93766682660285</v>
+        <v>-0.005264467541868711</v>
       </c>
       <c r="D150">
-        <v>0.04949064715378113</v>
+        <v>-0.003615745318079087</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.005264467541868711</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C151">
-        <v>79.5656103116892</v>
+        <v>-0.001819575296129194</v>
       </c>
       <c r="D151">
-        <v>0.05471921089654486</v>
+        <v>-0.001249721990979573</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.001819575296129194</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C152">
-        <v>80.19355379677555</v>
+        <v>-0.0004154549291168763</v>
       </c>
       <c r="D152">
-        <v>0.05546266067381638</v>
+        <v>-0.0002853430480633186</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.0004154549291168763</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C153">
-        <v>80.82149728186189</v>
+        <v>0.004640083586912702</v>
       </c>
       <c r="D153">
-        <v>0.05454829586039341</v>
+        <v>0.003186905488816028</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.004640083586912702</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C154">
-        <v>81.44944076694824</v>
+        <v>-0.002086170723718084</v>
       </c>
       <c r="D154">
-        <v>0.05619521541801188</v>
+        <v>-0.00143282525098821</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.002086170723718084</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C155">
-        <v>82.07738425203459</v>
+        <v>1.594146294792154e-05</v>
       </c>
       <c r="D155">
-        <v>0.05503076159158768</v>
+        <v>1.094892684946029e-05</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.594146294792154e-05</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C156">
-        <v>82.70532773712094</v>
+        <v>-0.009401621227348222</v>
       </c>
       <c r="D156">
-        <v>0.05923683592711905</v>
+        <v>-0.006457228136517411</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.009401621227348222</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C157">
-        <v>83.33327122220729</v>
+        <v>0.002491141668068408</v>
       </c>
       <c r="D157">
-        <v>0.05803792904164622</v>
+        <v>0.001710967681223991</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002491141668068408</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C158">
-        <v>83.96121470729364</v>
+        <v>0.005235236855656744</v>
       </c>
       <c r="D158">
-        <v>0.06038367676440638</v>
+        <v>0.003595669077514472</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.005235236855656744</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C159">
-        <v>84.58915819237998</v>
+        <v>-0.00383969754204383</v>
       </c>
       <c r="D159">
-        <v>0.06133946230461921</v>
+        <v>-0.002637183779759162</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.00383969754204383</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C160">
-        <v>85.21710167746633</v>
+        <v>0.0001923354335877647</v>
       </c>
       <c r="D160">
-        <v>0.05909707956541881</v>
+        <v>0.000132099958441156</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0001923354335877647</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C161">
-        <v>86.10223681260146</v>
+        <v>-0.001973194085365115</v>
       </c>
       <c r="D161">
-        <v>0.06006476292270972</v>
+        <v>-0.001454434837657165</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.001973194085365115</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C162">
-        <v>86.98737194773659</v>
+        <v>0.002309692105606054</v>
       </c>
       <c r="D162">
-        <v>0.05956614048021836</v>
+        <v>0.001702466416036099</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002309692105606054</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C163">
-        <v>87.87250708287172</v>
+        <v>0.008534720908522253</v>
       </c>
       <c r="D163">
-        <v>0.06163785169186585</v>
+        <v>0.006290914568973514</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.008534720908522253</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C164">
-        <v>88.75764221800685</v>
+        <v>-0.001319313830365765</v>
       </c>
       <c r="D164">
-        <v>0.06393078448713754</v>
+        <v>-0.0009724618631885987</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.001319313830365765</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C165">
-        <v>89.3855857030932</v>
+        <v>0.000906221990999434</v>
       </c>
       <c r="D165">
-        <v>0.06345500914805272</v>
+        <v>0.0006224120283840525</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.000906221990999434</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C166">
-        <v>90.01352918817955</v>
+        <v>0.005356929255257548</v>
       </c>
       <c r="D166">
-        <v>0.06112055463413515</v>
+        <v>0.003679249937421575</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.005356929255257548</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C167">
-        <v>90.64147267326589</v>
+        <v>-0.002484709246019179</v>
       </c>
       <c r="D167">
-        <v>0.06517800821396011</v>
+        <v>-0.001706549760565646</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.002484709246019179</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C168">
-        <v>91.26941615835224</v>
+        <v>0.001836431507466152</v>
       </c>
       <c r="D168">
-        <v>0.06933753724400835</v>
+        <v>0.001261299185964143</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001836431507466152</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C169">
-        <v>91.89735964343859</v>
+        <v>-0.005360412486578703</v>
       </c>
       <c r="D169">
-        <v>0.06719216432293913</v>
+        <v>-0.00368164229281955</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.005360412486578703</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C170">
-        <v>92.52530312852494</v>
+        <v>-0.00141626178363552</v>
       </c>
       <c r="D170">
-        <v>0.06691608796244956</v>
+        <v>-0.0009727179192630632</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.00141626178363552</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C171">
-        <v>93.15324661361129</v>
+        <v>0.001766039996019764</v>
       </c>
       <c r="D171">
-        <v>0.06778335429379252</v>
+        <v>0.001212952838319184</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001766039996019764</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C172">
-        <v>93.78119009869764</v>
+        <v>0.00820053038610169</v>
       </c>
       <c r="D172">
-        <v>0.07031924326689012</v>
+        <v>0.005632294075990701</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.00820053038610169</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C173">
-        <v>94.40913358378398</v>
+        <v>0.001166033884064888</v>
       </c>
       <c r="D173">
-        <v>0.0669851182603778</v>
+        <v>0.0008008562164166409</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.001166033884064888</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C174">
-        <v>95.03707706887033</v>
+        <v>-0.001434098694280017</v>
       </c>
       <c r="D174">
-        <v>0.06736957887894658</v>
+        <v>-0.0009849686788392052</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.001434098694280017</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C175">
-        <v>95.66502055395668</v>
+        <v>0.002583044702172188</v>
       </c>
       <c r="D175">
-        <v>0.0621249209091644</v>
+        <v>0.001774088588065037</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.002583044702172188</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C176">
-        <v>96.29296403904303</v>
+        <v>-0.001826340742239196</v>
       </c>
       <c r="D176">
-        <v>0.06101107260778314</v>
+        <v>-0.001254368639458722</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.001826340742239196</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C177">
-        <v>96.92090752412938</v>
+        <v>0.006596848023984414</v>
       </c>
       <c r="D177">
-        <v>0.06252225277097632</v>
+        <v>0.004530851822544254</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.006596848023984414</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C178">
-        <v>97.54885100921572</v>
+        <v>-0.001880377256188837</v>
       </c>
       <c r="D178">
-        <v>0.0578578984085096</v>
+        <v>-0.001291482036163106</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.001880377256188837</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C179">
-        <v>98.17679449430207</v>
+        <v>0.003679093614426421</v>
       </c>
       <c r="D179">
-        <v>0.06072234802923067</v>
+        <v>0.002526877676676679</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.003679093614426421</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C180">
-        <v>98.80473797938842</v>
+        <v>0.001499063366294351</v>
       </c>
       <c r="D180">
-        <v>0.06538564184163474</v>
+        <v>0.001029587760789702</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.001499063366294351</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C181">
-        <v>99.43268146447477</v>
+        <v>-0.003516974965741326</v>
       </c>
       <c r="D181">
-        <v>0.06456459984232495</v>
+        <v>-0.002415531231799869</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.003516974965741326</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C182">
-        <v>100.0606249495611</v>
+        <v>0.001517724018679445</v>
       </c>
       <c r="D182">
-        <v>0.06890510727247828</v>
+        <v>0.001042404283250349</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.001517724018679445</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C183">
-        <v>100.6885684346475</v>
+        <v>-0.0007820443035626568</v>
       </c>
       <c r="D183">
-        <v>0.06905255953253484</v>
+        <v>-0.0005371242213288234</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.0007820443035626568</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C184">
-        <v>101.3165119197338</v>
+        <v>0.003249292076787924</v>
       </c>
       <c r="D184">
-        <v>0.07315767263569328</v>
+        <v>0.00223168108080823</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.003249292076787924</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C185">
-        <v>101.9444554048202</v>
+        <v>0.003596258166870037</v>
       </c>
       <c r="D185">
-        <v>0.07512734560842509</v>
+        <v>0.002469984576037166</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.003596258166870037</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C186">
-        <v>102.5723988899065</v>
+        <v>-0.0007462106836744198</v>
       </c>
       <c r="D186">
-        <v>0.07675115642089476</v>
+        <v>-0.0005125129491896609</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.0007462106836744198</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C187">
-        <v>103.2003423749929</v>
+        <v>-0.003661381235496641</v>
       </c>
       <c r="D187">
-        <v>0.07892272859336752</v>
+        <v>-0.002514712448060859</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.003661381235496641</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C188">
-        <v>103.8282858600792</v>
+        <v>0.006363749780731176</v>
       </c>
       <c r="D188">
-        <v>0.07954182172099289</v>
+        <v>0.004370755122357139</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.006363749780731176</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C189">
-        <v>104.4562293451656</v>
+        <v>0.006523845912750126</v>
       </c>
       <c r="D189">
-        <v>0.07785725575416673</v>
+        <v>0.004480712460907774</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.006523845912750126</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C190">
-        <v>105.0841728302519</v>
+        <v>-0.003364823820517948</v>
       </c>
       <c r="D190">
-        <v>0.07370433048353062</v>
+        <v>-0.002311030674695756</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.003364823820517948</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C191">
-        <v>105.7121163153382</v>
+        <v>-0.000433000857302801</v>
       </c>
       <c r="D191">
-        <v>0.07167152009156108</v>
+        <v>-0.0002973939548615946</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.000433000857302801</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C192">
-        <v>106.3400598004246</v>
+        <v>0.001360228975474165</v>
       </c>
       <c r="D192">
-        <v>0.07242480661191131</v>
+        <v>0.0009342334263571908</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.001360228975474165</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C193">
-        <v>106.9680032855109</v>
+        <v>0.003977313006549466</v>
       </c>
       <c r="D193">
-        <v>0.0691017027089426</v>
+        <v>0.002731700930358766</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.003977313006549466</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C194">
-        <v>107.5959467705973</v>
+        <v>-0.005229274189265887</v>
       </c>
       <c r="D194">
-        <v>0.0757598594383212</v>
+        <v>-0.003591573794769438</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.005229274189265887</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C195">
-        <v>108.2238902556836</v>
+        <v>0.0006029917851142486</v>
       </c>
       <c r="D195">
-        <v>0.06862977178227075</v>
+        <v>0.0004141472440521636</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0006029917851142486</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C196">
-        <v>108.85183374077</v>
+        <v>-0.008225772728779113</v>
       </c>
       <c r="D196">
-        <v>0.06857075584769562</v>
+        <v>-0.005649631039629922</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.008225772728779113</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C197">
-        <v>109.4797772258563</v>
+        <v>-0.001746970543034188</v>
       </c>
       <c r="D197">
-        <v>0.07204338311004202</v>
+        <v>-0.00119985554314117</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.001746970543034188</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C198">
-        <v>110.1077207109427</v>
+        <v>0.002370149711627967</v>
       </c>
       <c r="D198">
-        <v>0.07685796898759405</v>
+        <v>0.001627867900183368</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002370149711627967</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C199">
-        <v>110.735664196029</v>
+        <v>-0.007315618889392361</v>
       </c>
       <c r="D199">
-        <v>0.07896143953018857</v>
+        <v>-0.005024518536357427</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.007315618889392361</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C200">
-        <v>111.3636076811154</v>
+        <v>0.004492630731850689</v>
       </c>
       <c r="D200">
-        <v>0.08009269588658843</v>
+        <v>0.003085631814681337</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.004492630731850689</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C201">
-        <v>111.9915511662017</v>
+        <v>0.007313955512326942</v>
       </c>
       <c r="D201">
-        <v>0.08247433263002615</v>
+        <v>0.005023376094545666</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.007313955512326942</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C202">
-        <v>112.6194946512881</v>
+        <v>-0.001287730282130362</v>
       </c>
       <c r="D202">
-        <v>0.08016997348501267</v>
+        <v>-0.000884439822552074</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.001287730282130362</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C203">
-        <v>113.2474381363744</v>
+        <v>0.006807694201172332</v>
       </c>
       <c r="D203">
-        <v>0.07991878703709003</v>
+        <v>0.004675665342988427</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.006807694201172332</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C204">
-        <v>113.8753816214608</v>
+        <v>0.0002312655632756844</v>
       </c>
       <c r="D204">
-        <v>0.08343603374559493</v>
+        <v>0.0001588379776295774</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0002312655632756844</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C205">
-        <v>114.5033251065471</v>
+        <v>0.006438499442112722</v>
       </c>
       <c r="D205">
-        <v>0.08523053154212276</v>
+        <v>0.004422094737620942</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.006438499442112722</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C206">
-        <v>115.1312685916335</v>
+        <v>0.003089254307346856</v>
       </c>
       <c r="D206">
-        <v>0.08259943583551294</v>
+        <v>0.002121763826884586</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.003089254307346856</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C207">
-        <v>115.7592120767198</v>
+        <v>0.002546800720822695</v>
       </c>
       <c r="D207">
-        <v>0.08206998519988909</v>
+        <v>0.001749195471177007</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.002546800720822695</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C208">
-        <v>116.3871555618062</v>
+        <v>0.003405914982029579</v>
       </c>
       <c r="D208">
-        <v>0.0827148939343786</v>
+        <v>0.002339252935288775</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.003405914982029579</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C209">
-        <v>117.0150990468925</v>
+        <v>0.0009709917014868452</v>
       </c>
       <c r="D209">
-        <v>0.08448263832282558</v>
+        <v>0.0006668972067208279</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0009709917014868452</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C210">
-        <v>117.6430425319789</v>
+        <v>-0.002642089697666883</v>
       </c>
       <c r="D210">
-        <v>0.06844286924666747</v>
+        <v>-0.001814641913604235</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.002642089697666883</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C211">
-        <v>118.2709860170652</v>
+        <v>-0.00651348851205924</v>
       </c>
       <c r="D211">
-        <v>0.05719735083441567</v>
+        <v>-0.004473598783644556</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.00651348851205924</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C212">
-        <v>118.8989295021516</v>
+        <v>-0.00318827965167312</v>
       </c>
       <c r="D212">
-        <v>0.05408559003285657</v>
+        <v>-0.002189776483866751</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.00318827965167312</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C213">
-        <v>119.5268729872379</v>
+        <v>0.001181461927880711</v>
       </c>
       <c r="D213">
-        <v>0.02761253641843373</v>
+        <v>0.0008114525163749046</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.001181461927880711</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C214">
-        <v>120.1548164723243</v>
+        <v>-0.005211988582941807</v>
       </c>
       <c r="D214">
-        <v>0.01251732583550609</v>
+        <v>-0.003579701682416312</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.005211988582941807</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C215">
-        <v>120.7827599574106</v>
+        <v>0.01044271797398721</v>
       </c>
       <c r="D215">
-        <v>0.05082620767817962</v>
+        <v>0.00717227493990051</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.01044271797398721</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C216">
-        <v>121.410703442497</v>
+        <v>-0.01118289904372549</v>
       </c>
       <c r="D216">
-        <v>0.04136655880809259</v>
+        <v>-0.007680646625384764</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.01118289904372549</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C217">
-        <v>122.0386469275833</v>
+        <v>-9.256116757061505e-05</v>
       </c>
       <c r="D217">
-        <v>0.07586751489970936</v>
+        <v>-6.357292653391225e-05</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-9.256116757061505e-05</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C218">
-        <v>122.6665904126696</v>
+        <v>0.005446502478599236</v>
       </c>
       <c r="D218">
-        <v>0.06142559879489595</v>
+        <v>0.003740770681988269</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.005446502478599236</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C219">
-        <v>123.294533897756</v>
+        <v>0.00755124346337066</v>
       </c>
       <c r="D219">
-        <v>0.05651359124686681</v>
+        <v>0.005186350372798762</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.00755124346337066</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C220">
-        <v>123.9224773828423</v>
+        <v>0.003299103721301933</v>
       </c>
       <c r="D220">
-        <v>0.02414487020858395</v>
+        <v>0.002265892749700657</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.003299103721301933</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C221">
-        <v>124.5504208679287</v>
+        <v>0.001774273506365276</v>
       </c>
       <c r="D221">
-        <v>0.04264942343527874</v>
+        <v>0.001218607783714207</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.001774273506365276</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C222">
-        <v>125.178364353015</v>
+        <v>0.003735382304604684</v>
       </c>
       <c r="D222">
-        <v>0.01043946509746952</v>
+        <v>0.002565537914650264</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.003735382304604684</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C223">
-        <v>125.8063078381014</v>
+        <v>-0.003614179365285075</v>
       </c>
       <c r="D223">
-        <v>-0.05175170126283685</v>
+        <v>-0.002482293226199447</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.003614179365285075</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C224">
-        <v>126.4342513231877</v>
+        <v>-0.0003939632755969313</v>
       </c>
       <c r="D224">
-        <v>7.236033712947065e-05</v>
+        <v>-0.0002705821354022567</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.0003939632755969313</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C225">
-        <v>127.0621948082741</v>
+        <v>0.005516484053279314</v>
       </c>
       <c r="D225">
-        <v>-0.04645511227640203</v>
+        <v>0.003788835476573644</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.005516484053279314</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C226">
-        <v>127.6901382933604</v>
+        <v>0.002814507851909731</v>
       </c>
       <c r="D226">
-        <v>0.005276844993152126</v>
+        <v>0.001933062272168004</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.002814507851909731</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C227">
-        <v>128.3180817784468</v>
+        <v>-0.004126636176264853</v>
       </c>
       <c r="D227">
-        <v>-0.01470398859878345</v>
+        <v>-0.002834259175325642</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.004126636176264853</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C228">
-        <v>128.9460252635331</v>
+        <v>-0.0008303955424437959</v>
       </c>
       <c r="D228">
-        <v>-0.03363992316236612</v>
+        <v>-0.0005703328533922561</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.0008303955424437959</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C229">
-        <v>129.5739687486195</v>
+        <v>0.001011481151159899</v>
       </c>
       <c r="D229">
-        <v>-0.07700602575173802</v>
+        <v>0.0006947061991635802</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.001011481151159899</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C230">
-        <v>130.2019122337058</v>
+        <v>0.00277254754565881</v>
       </c>
       <c r="D230">
-        <v>-0.09635195916460645</v>
+        <v>0.001904243064970826</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.00277254754565881</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C231">
-        <v>130.8298557187922</v>
+        <v>-0.02515693030942412</v>
       </c>
       <c r="D231">
-        <v>-0.0660241797921111</v>
+        <v>-0.01727830065626237</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.02515693030942412</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C232">
-        <v>131.4577992038785</v>
+        <v>-0.01763758079353384</v>
       </c>
       <c r="D232">
-        <v>-0.06712496417981849</v>
+        <v>-0.01211385570701501</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.01763758079353384</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C233">
-        <v>132.0857426889649</v>
+        <v>-0.004880516000743462</v>
       </c>
       <c r="D233">
-        <v>-0.03171403945588769</v>
+        <v>-0.003352039449223054</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.004880516000743462</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C234">
-        <v>132.7136861740512</v>
+        <v>-0.04152059557051935</v>
       </c>
       <c r="D234">
-        <v>-0.03634123893613222</v>
+        <v>-0.028517204796873</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04152059557051935</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C235">
-        <v>133.5988213091863</v>
+        <v>-0.02103030784062643</v>
       </c>
       <c r="D235">
-        <v>-0.01176629535530697</v>
+        <v>-0.0155013703907398</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.02103030784062643</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C236">
-        <v>134.4839564443215</v>
+        <v>0.05337107248392936</v>
       </c>
       <c r="D236">
-        <v>-0.02445710043324601</v>
+        <v>0.039339641102456</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.05337107248392936</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C237">
-        <v>135.3690915794566</v>
+        <v>-0.01317897002557622</v>
       </c>
       <c r="D237">
-        <v>-0.03630623546938143</v>
+        <v>-0.009714175240947366</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.01317897002557622</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C238">
-        <v>136.2542267145917</v>
+        <v>0.04806595598098085</v>
       </c>
       <c r="D238">
-        <v>-0.0179952799620464</v>
+        <v>0.03542925726492765</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.04806595598098085</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C239">
-        <v>137.1393618497269</v>
+        <v>-0.02012015266857059</v>
       </c>
       <c r="D239">
-        <v>-0.0145235127187352</v>
+        <v>-0.01483049802206101</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.02012015266857059</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C240">
-        <v>137.7673053348132</v>
+        <v>-0.007704040561831604</v>
       </c>
       <c r="D240">
-        <v>0.0101573573064874</v>
+        <v>-0.005291294583962066</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.007704040561831604</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C241">
-        <v>138.6524404699483</v>
+        <v>-0.04509537406601893</v>
       </c>
       <c r="D241">
-        <v>0.00239433812080121</v>
+        <v>-0.03323965115507786</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.04509537406601893</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C242">
-        <v>139.2957394390205</v>
+        <v>0.02883200120976959</v>
       </c>
       <c r="D242">
-        <v>0.01135004372898093</v>
+        <v>0.01989260850800473</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.02883200120976959</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C243">
-        <v>139.9390384080927</v>
+        <v>-0.05018643500252828</v>
       </c>
       <c r="D243">
-        <v>0.01637825703760207</v>
+        <v>-0.03462607734559327</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05018643500252828</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C244">
-        <v>140.5823373771648</v>
+        <v>-0.09690024729430391</v>
       </c>
       <c r="D244">
-        <v>0.01149085124353832</v>
+        <v>-0.06685622235272641</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.09690024729430391</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C245">
-        <v>141.225636346237</v>
+        <v>0.08074722952996627</v>
       </c>
       <c r="D245">
-        <v>0.0380938433484346</v>
+        <v>0.05571146496072357</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.08074722952996627</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C246">
-        <v>141.8689353153092</v>
+        <v>-0.07249459796444224</v>
       </c>
       <c r="D246">
-        <v>0.02798793668562718</v>
+        <v>-0.05001757060703768</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.07249459796444224</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C247">
-        <v>142.5122342843813</v>
+        <v>0.0806037214898998</v>
       </c>
       <c r="D247">
-        <v>0.03309743256180212</v>
+        <v>0.05561245174141827</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.0806037214898998</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C248">
-        <v>143.1555332534535</v>
+        <v>-0.03113219818049018</v>
       </c>
       <c r="D248">
-        <v>0.04268037348701791</v>
+        <v>-0.02147962695660061</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.03113219818049018</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C249">
-        <v>143.7988322225256</v>
+        <v>-0.0295041377955414</v>
       </c>
       <c r="D249">
-        <v>0.02915850977450583</v>
+        <v>-0.02035634842905242</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.0295041377955414</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C250">
-        <v>144.4421311915978</v>
+        <v>-0.06756885762127052</v>
       </c>
       <c r="D250">
-        <v>0.0144406953285355</v>
+        <v>-0.04661906130669824</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.06756885762127052</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C251">
-        <v>145.08543016067</v>
+        <v>-0.03014295826171498</v>
       </c>
       <c r="D251">
-        <v>0.02130339113688871</v>
+        <v>-0.02079710192888878</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.03014295826171498</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C252">
-        <v>145.7287291297421</v>
+        <v>0.04725380617652419</v>
       </c>
       <c r="D252">
-        <v>0.0147317027434069</v>
+        <v>0.03260271321243621</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.04725380617652419</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C253">
-        <v>146.3720280988143</v>
+        <v>-0.001715135534982259</v>
       </c>
       <c r="D253">
-        <v>0.0218577751472969</v>
+        <v>-0.001183355934516555</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.001715135534982259</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C254">
-        <v>147.0153270678865</v>
+        <v>0.05517387055887291</v>
       </c>
       <c r="D254">
-        <v>0.02395370477891866</v>
+        <v>0.03806715319251188</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.05517387055887291</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C255">
-        <v>147.6586260369586</v>
+        <v>-0.00720965372024196</v>
       </c>
       <c r="D255">
-        <v>0.02676234938605304</v>
+        <v>-0.00497429290084992</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.00720965372024196</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C256">
-        <v>148.3019250060308</v>
+        <v>0.0382902950626347</v>
       </c>
       <c r="D256">
-        <v>0.02383501074792908</v>
+        <v>0.02641834827195007</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.0382902950626347</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C257">
-        <v>148.9452239751029</v>
+        <v>-0.01977358236524385</v>
       </c>
       <c r="D257">
-        <v>0.01651965489372025</v>
+        <v>-0.01364276207991063</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.01977358236524385</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C258">
-        <v>149.5885229441751</v>
+        <v>-0.01846217368835124</v>
       </c>
       <c r="D258">
-        <v>0.008902619089052898</v>
+        <v>-0.01273795706087555</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.01846217368835124</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C259">
-        <v>150.2318219132473</v>
+        <v>0.02853035600869891</v>
       </c>
       <c r="D259">
-        <v>0.008935224282630926</v>
+        <v>0.01968448872299362</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.02853035600869891</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C260">
-        <v>150.8751208823194</v>
+        <v>0.005409371203557889</v>
       </c>
       <c r="D260">
-        <v>0.009782378434485579</v>
+        <v>0.003732189897050555</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.005409371203557889</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C261">
-        <v>151.5184198513916</v>
+        <v>0.03845533938094903</v>
       </c>
       <c r="D261">
-        <v>0.002688355797903458</v>
+        <v>0.02653222042348094</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.03845533938094903</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C262">
-        <v>152.1617188204638</v>
+        <v>-0.01209558403335453</v>
       </c>
       <c r="D262">
-        <v>2.703590712808956e-05</v>
+        <v>-0.008345335313376169</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.01209558403335453</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C263">
-        <v>152.8050177895359</v>
+        <v>0.01395391241096711</v>
       </c>
       <c r="D263">
-        <v>0.01444339413949032</v>
+        <v>0.00962748699706285</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.01395391241096711</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C264">
-        <v>153.4483167586081</v>
+        <v>0.007834474597744112</v>
       </c>
       <c r="D264">
-        <v>0.01319224672240922</v>
+        <v>0.00540538739940199</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.007834474597744112</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C265">
-        <v>154.0916157276802</v>
+        <v>-0.007615081976894089</v>
       </c>
       <c r="D265">
-        <v>0.007597051217816461</v>
+        <v>-0.005254017694456369</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.007615081976894089</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C266">
-        <v>154.7349146967524</v>
+        <v>0.04145020369610197</v>
       </c>
       <c r="D266">
-        <v>0.001732870323084695</v>
+        <v>0.02859852386605101</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.04145020369610197</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C267">
-        <v>155.3782136658246</v>
+        <v>-0.01574604420643588</v>
       </c>
       <c r="D267">
-        <v>-0.000281598897786119</v>
+        <v>-0.01086396641944606</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.01574604420643588</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C268">
-        <v>156.0215126348967</v>
+        <v>0.00796112121586745</v>
       </c>
       <c r="D268">
-        <v>0.004562243448662569</v>
+        <v>0.005492767098607076</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.00796112121586745</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C269">
-        <v>156.6648116039689</v>
+        <v>0.01493120968467299</v>
       </c>
       <c r="D269">
-        <v>0.01515416675146274</v>
+        <v>0.01030177220953655</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.01493120968467299</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C270">
-        <v>157.3081105730411</v>
+        <v>-0.02106845737594298</v>
       </c>
       <c r="D270">
-        <v>0.003817726870816609</v>
+        <v>-0.0145361597135757</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.02106845737594298</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C271">
-        <v>157.9514095421132</v>
+        <v>-0.02293187188649437</v>
       </c>
       <c r="D271">
-        <v>0.01075847652892158</v>
+        <v>-0.01582182056926315</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.02293187188649437</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C272">
-        <v>158.5947085111854</v>
+        <v>0.01069278741424995</v>
       </c>
       <c r="D272">
-        <v>0.00402584052195103</v>
+        <v>0.007377477281005369</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.01069278741424995</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C273">
-        <v>159.2380074802576</v>
+        <v>-0.0102393678674586</v>
       </c>
       <c r="D273">
-        <v>0.006146937093246763</v>
+        <v>-0.007064640947912372</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.0102393678674586</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C274">
-        <v>159.8813064493297</v>
+        <v>0.01110315529658212</v>
       </c>
       <c r="D274">
-        <v>0.009554408449028698</v>
+        <v>0.007660610164085534</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01110315529658212</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C275">
-        <v>160.5246054184019</v>
+        <v>0.003265674395604101</v>
       </c>
       <c r="D275">
-        <v>0.01946650184365889</v>
+        <v>0.002253148568971169</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.003265674395604101</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C276">
-        <v>161.167904387474</v>
+        <v>0.004376157787689294</v>
       </c>
       <c r="D276">
-        <v>0.02424900728089677</v>
+        <v>0.003019325401882324</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.004376157787689294</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="C277">
-        <v>162.0530395226092</v>
+        <v>-0.004078302344661111</v>
       </c>
       <c r="D277">
-        <v>0.02528812915728374</v>
+        <v>-0.003006103176858268</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.004078302344661111</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C278">
-        <v>162.6963384916813</v>
+        <v>-0.01139807842181106</v>
       </c>
       <c r="D278">
-        <v>0.02925942643194591</v>
+        <v>-0.007864092060033452</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.01139807842181106</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C279">
-        <v>163.3396374607535</v>
+        <v>-0.0118681268790759</v>
       </c>
       <c r="D279">
-        <v>0.03054272342367491</v>
+        <v>-0.008188401492185967</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.0118681268790759</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C280">
-        <v>163.9829364298257</v>
+        <v>5.080225224407542e-05</v>
       </c>
       <c r="D280">
-        <v>0.03185492090975391</v>
+        <v>3.505095979511348e-05</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>5.080225224407542e-05</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C281">
-        <v>164.6262353988978</v>
+        <v>0.001319953485604763</v>
       </c>
       <c r="D281">
-        <v>0.02805795652842788</v>
+        <v>0.0009107005006997103</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.001319953485604763</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C282">
-        <v>165.26953436797</v>
+        <v>-0.01105321845571527</v>
       </c>
       <c r="D282">
-        <v>0.03731624443406812</v>
+        <v>-0.007626156293947858</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.01105321845571527</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C283">
-        <v>165.9128333370421</v>
+        <v>-0.004146610694697905</v>
       </c>
       <c r="D283">
-        <v>0.04344252748873938</v>
+        <v>-0.002860949629704533</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-0.004146610694697905</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C284">
-        <v>166.5561323061143</v>
+        <v>0.02246217203430323</v>
       </c>
       <c r="D284">
-        <v>0.03758653547383944</v>
+        <v>0.01549775165680971</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.02246217203430323</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C285">
-        <v>167.1994312751865</v>
+        <v>-0.001949416632812451</v>
       </c>
       <c r="D285">
-        <v>0.03662960936097714</v>
+        <v>-0.001344997928287781</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.001949416632812451</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C286">
-        <v>167.8427302442586</v>
+        <v>-0.008717891298482883</v>
       </c>
       <c r="D286">
-        <v>0.0117222714294213</v>
+        <v>-0.0060148998106069</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.008717891298482883</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C287">
-        <v>168.4860292133308</v>
+        <v>-0.009136998260909301</v>
       </c>
       <c r="D287">
-        <v>0.01056337563470771</v>
+        <v>-0.006304062212684727</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.009136998260909301</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C288">
-        <v>169.129328182403</v>
+        <v>-0.003138750679449132</v>
       </c>
       <c r="D288">
-        <v>0.01733541011104987</v>
+        <v>-0.002165577686274466</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-0.003138750679449132</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C289">
-        <v>169.7726271514751</v>
+        <v>0.007547205635382248</v>
       </c>
       <c r="D289">
-        <v>0.02749861158743745</v>
+        <v>0.005207186484967061</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.007547205635382248</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C290">
-        <v>170.4159261205473</v>
+        <v>0.01650330822575974</v>
       </c>
       <c r="D290">
-        <v>0.02623036595048184</v>
+        <v>0.01138643992255147</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.01650330822575974</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C291">
-        <v>171.0592250896194</v>
+        <v>-0.01766334179210283</v>
       </c>
       <c r="D291">
-        <v>0.02966993980852697</v>
+        <v>-0.01218680384538553</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.01766334179210283</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C292">
-        <v>171.7025240586916</v>
+        <v>0.01081440335725059</v>
       </c>
       <c r="D292">
-        <v>0.02553176113410569</v>
+        <v>0.007461386071270813</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.01081440335725059</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C293">
-        <v>172.3458230277638</v>
+        <v>-0.01049014083830357</v>
       </c>
       <c r="D293">
-        <v>0.02380315379686664</v>
+        <v>-0.00723766149189452</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.01049014083830357</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C294">
-        <v>172.9891219968359</v>
+        <v>0.003304887081597485</v>
       </c>
       <c r="D294">
-        <v>0.02291051656750726</v>
+        <v>0.002280203319882784</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.003304887081597485</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C295">
-        <v>173.6324209659081</v>
+        <v>0.005309191583746653</v>
       </c>
       <c r="D295">
-        <v>0.01227390678543443</v>
+        <v>0.003663071075124646</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.005309191583746653</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C296">
-        <v>174.2757199349803</v>
+        <v>0.01544406315809077</v>
       </c>
       <c r="D296">
-        <v>0.01703498933247557</v>
+        <v>0.01065561491696587</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01544406315809077</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C297">
-        <v>174.9190189040524</v>
+        <v>0.007451636408775997</v>
       </c>
       <c r="D297">
-        <v>0.003642420912930874</v>
+        <v>0.005141248598919569</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.007451636408775997</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C298">
-        <v>175.5623178731246</v>
+        <v>0.001619058986729094</v>
       </c>
       <c r="D298">
-        <v>0.01540167540188173</v>
+        <v>0.001117068022439434</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.001619058986729094</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C299">
-        <v>176.2056168421967</v>
+        <v>0.006187690479456442</v>
       </c>
       <c r="D299">
-        <v>0.0205560833205904</v>
+        <v>0.004269190451990785</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.006187690479456442</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C300">
-        <v>176.8489158112689</v>
+        <v>0.001999508983802301</v>
       </c>
       <c r="D300">
-        <v>0.02087619674635144</v>
+        <v>0.001379559092469093</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.001999508983802301</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C301">
-        <v>177.4922147803411</v>
+        <v>0.002044538932802098</v>
       </c>
       <c r="D301">
-        <v>0.02385624783685774</v>
+        <v>0.001410627457792443</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.002044538932802098</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C302">
-        <v>178.1355137494132</v>
+        <v>-0.005916061862975219</v>
       </c>
       <c r="D302">
-        <v>0.02724516287090924</v>
+        <v>-0.004081780577528065</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.005916061862975219</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C303">
-        <v>178.7788127184854</v>
+        <v>0.01442536681786688</v>
       </c>
       <c r="D303">
-        <v>0.03366658760974219</v>
+        <v>0.009952766462667649</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.01442536681786688</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C304">
-        <v>179.4221116875576</v>
+        <v>0.00954538044122355</v>
       </c>
       <c r="D304">
-        <v>0.03232665601474716</v>
+        <v>0.006585825062773816</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.00954538044122355</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C305">
-        <v>180.0654106566297</v>
+        <v>-0.009124239142095369</v>
       </c>
       <c r="D305">
-        <v>0.02747749468339655</v>
+        <v>-0.00629525907225663</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.009124239142095369</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C306">
-        <v>180.7087096257019</v>
+        <v>-0.001490989515159136</v>
       </c>
       <c r="D306">
-        <v>0.03948575518069605</v>
+        <v>-0.001028706627015208</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.001490989515159136</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C307">
-        <v>181.352008594774</v>
+        <v>-0.03880819972128702</v>
       </c>
       <c r="D307">
-        <v>0.03798137157638799</v>
+        <v>-0.02677567603924883</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.03880819972128702</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C308">
-        <v>181.9953075638462</v>
+        <v>-0.001805679096698043</v>
       </c>
       <c r="D308">
-        <v>0.04771276464177858</v>
+        <v>-0.001245826368428792</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-0.001805679096698043</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C309">
-        <v>182.6386065329184</v>
+        <v>0.01055152771442369</v>
       </c>
       <c r="D309">
-        <v>0.04778437708538379</v>
+        <v>0.007280015301652724</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.01055152771442369</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C310">
-        <v>183.2819055019905</v>
+        <v>0.0158353154314268</v>
       </c>
       <c r="D310">
-        <v>0.0491945361817642</v>
+        <v>0.01092555900599092</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0158353154314268</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C311">
-        <v>183.9252044710627</v>
+        <v>-0.001976057421707367</v>
       </c>
       <c r="D311">
-        <v>0.05185313432249677</v>
+        <v>-0.001363378712194359</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.001976057421707367</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C312">
-        <v>184.5685034401349</v>
+        <v>0.005359210591109331</v>
       </c>
       <c r="D312">
-        <v>0.04564278432210221</v>
+        <v>0.003697581635948555</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.005359210591109331</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C313">
-        <v>185.211802409207</v>
+        <v>-0.006447708900911842</v>
       </c>
       <c r="D313">
-        <v>0.05190395796697115</v>
+        <v>-0.004448589884768589</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.006447708900911842</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C314">
-        <v>185.8551013782792</v>
+        <v>-0.002693348400684137</v>
       </c>
       <c r="D314">
-        <v>0.0568148202297599</v>
+        <v>-0.001858272858712132</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>-0.002693348400684137</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C315">
-        <v>186.4984003473513</v>
+        <v>-0.001390820808342852</v>
       </c>
       <c r="D315">
-        <v>0.05798382949489455</v>
+        <v>-0.0009595953344985357</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.001390820808342852</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C316">
-        <v>187.1416993164235</v>
+        <v>-0.0165729343663461</v>
       </c>
       <c r="D316">
-        <v>0.05705685897472233</v>
+        <v>-0.01143447840404746</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.0165729343663461</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C317">
-        <v>187.7849982854957</v>
+        <v>0.007418257337771017</v>
       </c>
       <c r="D317">
-        <v>0.06053614518138263</v>
+        <v>0.005118218744452236</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.007418257337771017</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C318">
-        <v>188.4282972545678</v>
+        <v>-0.02086700198290625</v>
       </c>
       <c r="D318">
-        <v>0.06242874469119035</v>
+        <v>-0.01439716577984389</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.02086700198290625</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C319">
-        <v>189.07159622364</v>
+        <v>0.01832213053176091</v>
       </c>
       <c r="D319">
-        <v>0.06341788346676666</v>
+        <v>0.01264133443423204</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01832213053176091</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C320">
-        <v>189.7148951927122</v>
+        <v>0.008031098807263604</v>
       </c>
       <c r="D320">
-        <v>0.06344783358449886</v>
+        <v>0.005541048063214733</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.008031098807263604</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C321">
-        <v>190.3581941617843</v>
+        <v>0.0004987697117426748</v>
       </c>
       <c r="D321">
-        <v>0.06256871548188614</v>
+        <v>0.0003441256310708476</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.0004987697117426748</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C322">
-        <v>191.0014931308565</v>
+        <v>0.004643226755818297</v>
       </c>
       <c r="D322">
-        <v>0.0609572054240259</v>
+        <v>0.003203589351823713</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.004643226755818297</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C323">
-        <v>191.6447920999287</v>
+        <v>0.005280278921872217</v>
       </c>
       <c r="D323">
-        <v>0.0696077248296199</v>
+        <v>0.003643122814877016</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.005280278921872217</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C324">
-        <v>192.2880910690008</v>
+        <v>0.01000524160569238</v>
       </c>
       <c r="D324">
-        <v>0.06817239259958638</v>
+        <v>0.006903105783118472</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.01000524160569238</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C325">
-        <v>192.931390038073</v>
+        <v>-0.002087751533075277</v>
       </c>
       <c r="D325">
-        <v>0.06828139246412024</v>
+        <v>-0.001440441945298638</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>-0.002087751533075277</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C326">
-        <v>193.5746890071451</v>
+        <v>-0.007555493162092475</v>
       </c>
       <c r="D326">
-        <v>0.07167095143624334</v>
+        <v>-0.005212904455188646</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.007555493162092475</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C327">
-        <v>194.2179879762173</v>
+        <v>0.01871010755806335</v>
       </c>
       <c r="D327">
-        <v>0.07457191919653566</v>
+        <v>0.01290901877005675</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.01871010755806335</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C328">
-        <v>194.8612869452895</v>
+        <v>-0.002343984713816027</v>
       </c>
       <c r="D328">
-        <v>0.07004263986121455</v>
+        <v>-0.001617229755279355</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>-0.002343984713816027</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C329">
-        <v>195.5045859143616</v>
+        <v>0.01516251342017405</v>
       </c>
       <c r="D329">
-        <v>0.07856261852699191</v>
+        <v>0.01046135997534181</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.01516251342017405</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C330">
-        <v>196.1478848834338</v>
+        <v>0.0001115795683022114</v>
       </c>
       <c r="D330">
-        <v>0.07734261225839199</v>
+        <v>7.698420423816995e-05</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.0001115795683022114</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C331">
-        <v>196.791183852506</v>
+        <v>0.002197173218651649</v>
       </c>
       <c r="D331">
-        <v>0.07719605553980942</v>
+        <v>0.001515937320649801</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.002197173218651649</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C332">
-        <v>197.4344828215781</v>
+        <v>0.004142369927597755</v>
       </c>
       <c r="D332">
-        <v>0.08079167171528914</v>
+        <v>0.002858023716963231</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.004142369927597755</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C333">
-        <v>198.0777817906503</v>
+        <v>-0.009676365407523591</v>
       </c>
       <c r="D333">
-        <v>0.0830711077478667</v>
+        <v>-0.006676198000679978</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.009676365407523591</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C334">
-        <v>198.7210807597224</v>
+        <v>0.00975555388405791</v>
       </c>
       <c r="D334">
-        <v>0.07833831140366421</v>
+        <v>0.006730834005672541</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.00975555388405791</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C335">
-        <v>199.3643797287946</v>
+        <v>0.007651629572849039</v>
       </c>
       <c r="D335">
-        <v>0.07670729130236779</v>
+        <v>0.005279233669336191</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.007651629572849039</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C336">
-        <v>200.0076786978668</v>
+        <v>0.001821436926019437</v>
       </c>
       <c r="D336">
-        <v>0.07840658708819095</v>
+        <v>0.001256698465975744</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.001821436926019437</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C337">
-        <v>200.6509776669389</v>
+        <v>-0.001444315614195446</v>
       </c>
       <c r="D337">
-        <v>0.08377754302805715</v>
+        <v>-0.0009965040187863538</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.001444315614195446</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C338">
-        <v>201.2942766360111</v>
+        <v>0.005421086523442753</v>
       </c>
       <c r="D338">
-        <v>0.08295490694830007</v>
+        <v>0.003740272869519934</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.005421086523442753</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C339">
-        <v>201.9375756050833</v>
+        <v>0.002948865108381327</v>
       </c>
       <c r="D339">
-        <v>0.08361310014370453</v>
+        <v>0.002034566338880001</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.002948865108381327</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C340">
-        <v>202.5808745741554</v>
+        <v>0.001541180163858513</v>
       </c>
       <c r="D340">
-        <v>0.08752891630280027</v>
+        <v>0.001063335611596452</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.001541180163858513</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C341">
-        <v>203.2241735432276</v>
+        <v>4.666537041497776e-05</v>
       </c>
       <c r="D341">
-        <v>0.09346301109843799</v>
+        <v>3.219672258586164e-05</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>4.666537041497776e-05</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C342">
-        <v>203.8674725122997</v>
+        <v>-0.001369756615441808</v>
       </c>
       <c r="D342">
-        <v>0.09142098591768866</v>
+        <v>-0.0009450621170548721</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>-0.001369756615441808</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C343">
-        <v>204.5107714813719</v>
+        <v>-0.002510898770079706</v>
       </c>
       <c r="D343">
-        <v>0.09209920071362009</v>
+        <v>-0.001732391930515784</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.002510898770079706</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C344">
-        <v>205.1540704504441</v>
+        <v>0.01347840085149521</v>
       </c>
       <c r="D344">
-        <v>0.1041579793306511</v>
+        <v>0.009299408303364679</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.01347840085149521</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C345">
-        <v>205.7973694195162</v>
+        <v>-0.002236395555502924</v>
       </c>
       <c r="D345">
-        <v>0.09193687650039804</v>
+        <v>-0.001542998730160533</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>-0.002236395555502924</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C346">
-        <v>206.4406683885884</v>
+        <v>0.000169833023667465</v>
       </c>
       <c r="D346">
-        <v>0.0904166767021309</v>
+        <v>0.0001171761136858867</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.000169833023667465</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C347">
-        <v>207.0839673576606</v>
+        <v>0.005281282243759122</v>
       </c>
       <c r="D347">
-        <v>0.07700059450848304</v>
+        <v>0.003643815055743632</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.005281282243759122</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C348">
-        <v>207.7272663267327</v>
+        <v>0.004520006776147945</v>
       </c>
       <c r="D348">
-        <v>0.08647033831601671</v>
+        <v>0.003118573858167447</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.004520006776147945</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C349">
-        <v>208.3705652958049</v>
+        <v>-0.007057084041725226</v>
       </c>
       <c r="D349">
-        <v>0.07838708049088711</v>
+        <v>-0.004869027613752987</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.007057084041725226</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C350">
-        <v>209.013864264877</v>
+        <v>0.01327500492389788</v>
       </c>
       <c r="D350">
-        <v>0.08230573221140756</v>
+        <v>0.009159075499880851</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.01327500492389788</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C351">
-        <v>209.6571632339492</v>
+        <v>-0.00190089551372985</v>
       </c>
       <c r="D351">
-        <v>0.08529423338669856</v>
+        <v>-0.001311520833886391</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.00190089551372985</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C352">
-        <v>210.3004622030214</v>
+        <v>-0.0002283504732973896</v>
       </c>
       <c r="D352">
-        <v>0.08463776287350427</v>
+        <v>-0.0001575501656951706</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.0002283504732973896</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C353">
-        <v>210.9437611720935</v>
+        <v>0.005602340605108225</v>
       </c>
       <c r="D353">
-        <v>0.08135500884399999</v>
+        <v>0.00386532892999996</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.005602340605108225</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C354">
-        <v>211.5870601411657</v>
+        <v>0.003551596282479252</v>
       </c>
       <c r="D354">
-        <v>0.07714719586238383</v>
+        <v>0.002450420070109637</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.003551596282479252</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C355">
-        <v>212.2303591102379</v>
+        <v>-0.007374184518261551</v>
       </c>
       <c r="D355">
-        <v>0.0712075499762171</v>
+        <v>-0.005087810749600714</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.007374184518261551</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C356">
-        <v>212.87365807931</v>
+        <v>-0.002541297428672706</v>
       </c>
       <c r="D356">
-        <v>0.06691259713654948</v>
+        <v>-0.00175336545261574</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.002541297428672706</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C357">
-        <v>213.5169570483822</v>
+        <v>0.002647677982407615</v>
       </c>
       <c r="D357">
-        <v>0.07102998843132478</v>
+        <v>0.001826762602293863</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.002647677982407615</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C358">
-        <v>214.1602560174543</v>
+        <v>0.008368502944045453</v>
       </c>
       <c r="D358">
-        <v>0.06090709368756102</v>
+        <v>0.005773839687810959</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.008368502944045453</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C359">
-        <v>214.8035549865265</v>
+        <v>-0.001281751802174824</v>
       </c>
       <c r="D359">
-        <v>0.06578959400423345</v>
+        <v>-0.0008843432899293038</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.001281751802174824</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C360">
-        <v>215.4468539555987</v>
+        <v>0.001025532839062926</v>
       </c>
       <c r="D360">
-        <v>0.06842999881629525</v>
+        <v>0.0007075652893864608</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.001025532839062926</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C361">
-        <v>216.0901529246708</v>
+        <v>0.006101245182910553</v>
       </c>
       <c r="D361">
-        <v>0.07571885075491594</v>
+        <v>0.004209547611764937</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.006101245182910553</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C362">
-        <v>216.733451893743</v>
+        <v>0.009245931324615597</v>
       </c>
       <c r="D362">
-        <v>0.0717399400568294</v>
+        <v>0.006379220463897363</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.009245931324615597</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C363">
-        <v>217.3767508628152</v>
+        <v>-0.003181685705159865</v>
       </c>
       <c r="D363">
-        <v>0.07946880099800986</v>
+        <v>-0.002195200661507116</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>-0.003181685705159865</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C364">
-        <v>218.0200498318873</v>
+        <v>0.0010567285563301</v>
       </c>
       <c r="D364">
-        <v>0.08267400146196682</v>
+        <v>0.0007290887412692257</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.0010567285563301</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C365">
-        <v>218.6633488009595</v>
+        <v>0.01878881999555748</v>
       </c>
       <c r="D365">
-        <v>0.07877709983622329</v>
+        <v>0.01296332633242086</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.01878881999555748</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C366">
-        <v>219.3066477700316</v>
+        <v>-0.01904173785067442</v>
       </c>
       <c r="D366">
-        <v>0.08369663961714105</v>
+        <v>-0.01313782673702062</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.01904173785067442</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C367">
-        <v>219.9499467391038</v>
+        <v>-0.002368627974195014</v>
       </c>
       <c r="D367">
-        <v>0.07944490917123896</v>
+        <v>-0.001634232346515162</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.002368627974195014</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C368">
-        <v>220.593245708176</v>
+        <v>-0.02090363886654689</v>
       </c>
       <c r="D368">
-        <v>0.08696493051227486</v>
+        <v>-0.0144224433586673</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.02090363886654689</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C369">
-        <v>221.2365446772481</v>
+        <v>0.01475483690798551</v>
       </c>
       <c r="D369">
-        <v>0.09071094818723445</v>
+        <v>0.01018008400022402</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.01475483690798551</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C370">
-        <v>221.8798436463203</v>
+        <v>-0.01259454884092026</v>
       </c>
       <c r="D370">
-        <v>0.0956244932307305</v>
+        <v>-0.008689595550602214</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01259454884092026</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C371">
-        <v>222.5231426153925</v>
+        <v>0.006105663279874385</v>
       </c>
       <c r="D371">
-        <v>0.103106317349888</v>
+        <v>0.004212595873056704</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.006105663279874385</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C372">
-        <v>223.1664415844646</v>
+        <v>0.004656392858871428</v>
       </c>
       <c r="D372">
-        <v>0.1030503893530638</v>
+        <v>0.003212673290593916</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.004656392858871428</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C373">
-        <v>223.8097405535368</v>
+        <v>-0.001022848722620928</v>
       </c>
       <c r="D373">
-        <v>0.0997419237773894</v>
+        <v>-0.0007057133861078057</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>-0.001022848722620928</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C374">
-        <v>224.4530395226089</v>
+        <v>-0.005114869134668076</v>
       </c>
       <c r="D374">
-        <v>0.09983561927414403</v>
+        <v>-0.003528998508475093</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.005114869134668076</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C375">
-        <v>225.0963384916811</v>
+        <v>-0.006556206328798275</v>
       </c>
       <c r="D375">
-        <v>0.1003413371687087</v>
+        <v>-0.004523447569511575</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.006556206328798275</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C376">
-        <v>225.7396374607533</v>
+        <v>-0.009254580495816178</v>
       </c>
       <c r="D376">
-        <v>0.09174603319573019</v>
+        <v>-0.006385187950349658</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.009254580495816178</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C377">
-        <v>226.3829364298254</v>
+        <v>-0.0066919792092337</v>
       </c>
       <c r="D377">
-        <v>0.09107199433909471</v>
+        <v>-0.004617123923672897</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.0066919792092337</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C378">
-        <v>227.0262353988976</v>
+        <v>0.006415320020847659</v>
       </c>
       <c r="D378">
-        <v>0.09184091102283022</v>
+        <v>0.0044262432114856</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.006415320020847659</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C379">
-        <v>227.6695343679698</v>
+        <v>-0.01577251338754415</v>
       </c>
       <c r="D379">
-        <v>0.09042576726433904</v>
+        <v>-0.01088222880274313</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.01577251338754415</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C380">
-        <v>228.3128333370419</v>
+        <v>0.007607438737506023</v>
       </c>
       <c r="D380">
-        <v>0.09141384957344162</v>
+        <v>0.005248744249586081</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.007607438737506023</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C381">
-        <v>228.9561323061141</v>
+        <v>0.004114022846324339</v>
       </c>
       <c r="D381">
-        <v>0.08325447059147352</v>
+        <v>0.002838465678448527</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.004114022846324339</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C382">
-        <v>229.5994312751862</v>
+        <v>0.01135678258953998</v>
       </c>
       <c r="D382">
-        <v>0.08170445969559625</v>
+        <v>0.007835600044567577</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01135678258953998</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C383">
-        <v>230.2427302442584</v>
+        <v>-0.006199552977874667</v>
       </c>
       <c r="D383">
-        <v>0.06281424831118049</v>
+        <v>-0.004277374970132405</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.006199552977874667</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C384">
-        <v>230.8860292133306</v>
+        <v>0.0120423619676906</v>
       </c>
       <c r="D384">
-        <v>0.06309219873629759</v>
+        <v>0.008308614805890851</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.0120423619676906</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C385">
-        <v>231.5293281824027</v>
+        <v>0.00499403268602272</v>
       </c>
       <c r="D385">
-        <v>0.06013774681301876</v>
+        <v>0.003445627529509361</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.00499403268602272</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C386">
-        <v>232.1726271514749</v>
+        <v>-0.00607177439040818</v>
       </c>
       <c r="D386">
-        <v>0.07044351046902497</v>
+        <v>-0.004189214269885369</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>-0.00607177439040818</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C387">
-        <v>232.8005706365612</v>
+        <v>0.007715854189381588</v>
       </c>
       <c r="D387">
-        <v>0.08069154912230751</v>
+        <v>0.005299408427985923</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.007715854189381588</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C388">
-        <v>233.4285141216476</v>
+        <v>-0.00666845551292905</v>
       </c>
       <c r="D388">
-        <v>0.08104866315664476</v>
+        <v>-0.004580033328714024</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>-0.00666845551292905</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C389">
-        <v>234.0564576067339</v>
+        <v>0.01179447483960505</v>
       </c>
       <c r="D389">
-        <v>0.08604651822772114</v>
+        <v>0.008100689545778014</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.01179447483960505</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C390">
-        <v>234.6844010918203</v>
+        <v>0.005875290669047573</v>
       </c>
       <c r="D390">
-        <v>0.08886451957876366</v>
+        <v>0.00403527129002333</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.005875290669047573</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C391">
-        <v>235.3123445769066</v>
+        <v>0.007706451984722307</v>
       </c>
       <c r="D391">
-        <v>0.08593162361819807</v>
+        <v>0.005292950799136273</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.007706451984722307</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C392">
-        <v>235.940288061993</v>
+        <v>0.01173456594414368</v>
       </c>
       <c r="D392">
-        <v>0.09846629616108127</v>
+        <v>0.008059542875853093</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.01173456594414368</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C393">
-        <v>236.5682315470793</v>
+        <v>-8.771801587492689e-05</v>
       </c>
       <c r="D393">
-        <v>0.1039353403837697</v>
+        <v>-6.024654966309669e-05</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-8.771801587492689e-05</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C394">
-        <v>237.1961750321657</v>
+        <v>-0.005189029687596047</v>
       </c>
       <c r="D394">
-        <v>0.1026121168982495</v>
+        <v>-0.003563933037687384</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.005189029687596047</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C395">
-        <v>237.824118517252</v>
+        <v>0.0001469529312405626</v>
       </c>
       <c r="D395">
-        <v>0.1112656201390122</v>
+        <v>0.0001009303161022914</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.0001469529312405626</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C396">
-        <v>238.4520620023384</v>
+        <v>0.0007931728798205029</v>
       </c>
       <c r="D396">
-        <v>0.1166173004526266</v>
+        <v>0.0005447675579400145</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.0007931728798205029</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C397">
-        <v>239.0800054874247</v>
+        <v>-0.01348095861042964</v>
       </c>
       <c r="D397">
-        <v>0.1126536709635771</v>
+        <v>-0.009259001521277595</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.01348095861042964</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C398">
-        <v>239.7079489725111</v>
+        <v>-0.001057169118938717</v>
       </c>
       <c r="D398">
-        <v>0.1042889771633185</v>
+        <v>-0.0007260856414860929</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>-0.001057169118938717</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C399">
-        <v>240.3358924575974</v>
+        <v>0.001205976428628297</v>
       </c>
       <c r="D399">
-        <v>0.1060820580514955</v>
+        <v>0.00082828958310543</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.001205976428628297</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C400">
-        <v>240.9638359426838</v>
+        <v>-0.002219525277523893</v>
       </c>
       <c r="D400">
-        <v>0.1019774868568186</v>
+        <v>-0.001524415919889309</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>-0.002219525277523893</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C401">
-        <v>241.5917794277701</v>
+        <v>0.001549717933721162</v>
       </c>
       <c r="D401">
-        <v>0.1023063748261213</v>
+        <v>0.001064378366592887</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.001549717933721162</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C402">
-        <v>242.2197229128565</v>
+        <v>-0.01279724960147099</v>
       </c>
       <c r="D402">
-        <v>0.1066319743852756</v>
+        <v>-0.008789416016492966</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.01279724960147099</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C403">
-        <v>242.8476663979428</v>
+        <v>-0.002431052211617768</v>
       </c>
       <c r="D403">
-        <v>0.1060905312943254</v>
+        <v>-0.001669696998272796</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.002431052211617768</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C404">
-        <v>243.4756098830292</v>
+        <v>-0.02962759183574626</v>
       </c>
       <c r="D404">
-        <v>0.1057285946606981</v>
+        <v>-0.02034884356567456</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.02962759183574626</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C405">
-        <v>244.1035533681155</v>
+        <v>0.0004359401585487532</v>
       </c>
       <c r="D405">
-        <v>0.1053014307895348</v>
+        <v>0.0002994127278208639</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.0004359401585487532</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C406">
-        <v>244.7314968532019</v>
+        <v>-0.004633791221280603</v>
       </c>
       <c r="D406">
-        <v>0.1109245663540413</v>
+        <v>-0.003182583761805089</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.004633791221280603</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C407">
-        <v>245.3594403382882</v>
+        <v>0.01616366026521643</v>
       </c>
       <c r="D407">
-        <v>0.1060957511098894</v>
+        <v>0.01110153656797582</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.01616366026521643</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C408">
-        <v>245.9873838233746</v>
+        <v>0.0160731238077565</v>
       </c>
       <c r="D408">
-        <v>0.1064598752151971</v>
+        <v>0.01103935425427121</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.0160731238077565</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C409">
-        <v>246.6153273084609</v>
+        <v>0.000560101135601343</v>
       </c>
       <c r="D409">
-        <v>0.1114063818927374</v>
+        <v>0.0003846890578382145</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.000560101135601343</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C410">
-        <v>247.2432707935473</v>
+        <v>0.007838684654541517</v>
       </c>
       <c r="D410">
-        <v>0.1092725310904239</v>
+        <v>0.005383770934884739</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.007838684654541517</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C411">
-        <v>247.8712142786336</v>
+        <v>0.004419780812519036</v>
       </c>
       <c r="D411">
-        <v>0.112784968988585</v>
+        <v>0.003035596981594996</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.004419780812519036</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C412">
-        <v>248.4991577637199</v>
+        <v>-0.004599982639052591</v>
       </c>
       <c r="D412">
-        <v>0.1106649773201438</v>
+        <v>-0.003159363327463037</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>-0.004599982639052591</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C413">
-        <v>249.1271012488063</v>
+        <v>0.01965950270951744</v>
       </c>
       <c r="D413">
-        <v>0.1074857802681178</v>
+        <v>0.0135025535464634</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.01965950270951744</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C414">
-        <v>249.7550447338926</v>
+        <v>0.008577702317039027</v>
       </c>
       <c r="D414">
-        <v>0.109356163111103</v>
+        <v>0.005891343568185582</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.008577702317039027</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C415">
-        <v>250.382988218979</v>
+        <v>-0.002075356624585467</v>
       </c>
       <c r="D415">
-        <v>0.1067584894966126</v>
+        <v>-0.001425397903778444</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.002075356624585467</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C416">
-        <v>251.0109317040653</v>
+        <v>0.01357223890983761</v>
       </c>
       <c r="D416">
-        <v>0.1082122478108856</v>
+        <v>0.00932169472103471</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.01357223890983761</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C417">
-        <v>251.6388751891517</v>
+        <v>0.008393627616998245</v>
       </c>
       <c r="D417">
-        <v>0.1089843817970796</v>
+        <v>0.005764917252597926</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.008393627616998245</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C418">
-        <v>252.266818674238</v>
+        <v>-0.006216595161373739</v>
       </c>
       <c r="D418">
-        <v>0.112877385661092</v>
+        <v>-0.00426968628267986</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.006216595161373739</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C419">
-        <v>252.8947621593244</v>
+        <v>-0.01311926736561109</v>
       </c>
       <c r="D419">
-        <v>0.1142712622397799</v>
+        <v>-0.009010584484864704</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.01311926736561109</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C420">
-        <v>253.5227056444107</v>
+        <v>0.00281228555902846</v>
       </c>
       <c r="D420">
-        <v>0.1075230550239517</v>
+        <v>0.001931535955400553</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.00281228555902846</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C421">
-        <v>254.1506491294971</v>
+        <v>-0.006437649507563314</v>
       </c>
       <c r="D421">
-        <v>0.1020578959254099</v>
+        <v>-0.004421510984972976</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>-0.006437649507563314</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C422">
-        <v>254.7939480985692</v>
+        <v>0.0005124413549815188</v>
       </c>
       <c r="D422">
-        <v>0.1040003614270803</v>
+        <v>0.0003535583667534224</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.0005124413549815188</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C423">
-        <v>255.4372470676414</v>
+        <v>0.006739729956981577</v>
       </c>
       <c r="D423">
-        <v>0.1065905360593882</v>
+        <v>0.00465006950119289</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.006739729956981577</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C424">
-        <v>256.0805460367136</v>
+        <v>-0.0008436241427745017</v>
       </c>
       <c r="D424">
-        <v>0.1117397347348505</v>
+        <v>-0.0005820575782449602</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>-0.0008436241427745017</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C425">
-        <v>256.7084895217999</v>
+        <v>-0.0005676649473791429</v>
       </c>
       <c r="D425">
-        <v>0.1102104437130769</v>
+        <v>-0.0003898840403896129</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.0005676649473791429</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C426">
-        <v>257.3364330068863</v>
+        <v>-0.0006699679831134731</v>
       </c>
       <c r="D426">
-        <v>0.1094304935373195</v>
+        <v>-0.0004601478837013677</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.0006699679831134731</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C427">
-        <v>257.9797319759585</v>
+        <v>0.008761424791638106</v>
       </c>
       <c r="D427">
-        <v>0.1145386142150481</v>
+        <v>0.00604493569781508</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.008761424791638106</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C428">
-        <v>258.6230309450307</v>
+        <v>-0.00752379186114549</v>
       </c>
       <c r="D428">
-        <v>0.1074671420783548</v>
+        <v>-0.005191032176384803</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>-0.00752379186114549</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C429">
-        <v>259.2663299141029</v>
+        <v>0.0005673428867005725</v>
       </c>
       <c r="D429">
-        <v>0.1075323733746632</v>
+        <v>0.0003914376200536364</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.0005673428867005725</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C430">
-        <v>259.9096288831751</v>
+        <v>0.007707167244936919</v>
       </c>
       <c r="D430">
-        <v>0.1071035891522931</v>
+        <v>0.005317551827005933</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.007707167244936919</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C431">
-        <v>260.5529278522473</v>
+        <v>-0.003324759488114282</v>
       </c>
       <c r="D431">
-        <v>0.1050208475619955</v>
+        <v>-0.00229391426558074</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>-0.003324759488114282</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C432">
-        <v>261.1962268213194</v>
+        <v>0.005472740275778598</v>
       </c>
       <c r="D432">
-        <v>0.1081936307062709</v>
+        <v>0.003775911320895908</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.005472740275778598</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C433">
-        <v>261.8395257903916</v>
+        <v>-0.003303165529066732</v>
       </c>
       <c r="D433">
-        <v>0.1025276292917522</v>
+        <v>-0.002279015536548874</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.003303165529066732</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C434">
-        <v>262.4828247594638</v>
+        <v>-0.004953516690036963</v>
       </c>
       <c r="D434">
-        <v>0.1005524346743469</v>
+        <v>-0.003417673561257464</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.004953516690036963</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C435">
-        <v>263.126123728536</v>
+        <v>0.002914249251578127</v>
       </c>
       <c r="D435">
-        <v>0.1015878185126844</v>
+        <v>0.002010683165369247</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.002914249251578127</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C436">
-        <v>263.7694226976082</v>
+        <v>-0.004047443236161463</v>
       </c>
       <c r="D436">
-        <v>0.09790935026576883</v>
+        <v>-0.002792529147371493</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.004047443236161463</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C437">
-        <v>264.4127216666804</v>
+        <v>0.00226510529394286</v>
       </c>
       <c r="D437">
-        <v>0.09529332795044834</v>
+        <v>0.001562806983600788</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.00226510529394286</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C438">
-        <v>265.0560206357526</v>
+        <v>0.001203064335102866</v>
       </c>
       <c r="D438">
-        <v>0.09244721887082641</v>
+        <v>0.0008300529558813645</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.001203064335102866</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C439">
-        <v>265.6993196048248</v>
+        <v>0.006065701275884905</v>
       </c>
       <c r="D439">
-        <v>0.09404792366179202</v>
+        <v>0.004185024130992241</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.006065701275884905</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C440">
-        <v>266.342618573897</v>
+        <v>0.002171803377831516</v>
       </c>
       <c r="D440">
-        <v>0.09142563735577564</v>
+        <v>0.001498433426012952</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.002171803377831516</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C441">
-        <v>266.9859175429692</v>
+        <v>-0.0105144023866437</v>
       </c>
       <c r="D441">
-        <v>0.08953093490978001</v>
+        <v>-0.007254400721315907</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.0105144023866437</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C442">
-        <v>267.6292165120414</v>
+        <v>-0.008515281174874545</v>
       </c>
       <c r="D442">
-        <v>0.09532182037301616</v>
+        <v>-0.005875109171747832</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.008515281174874545</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C443">
-        <v>268.2725154811135</v>
+        <v>0.00302656146344038</v>
       </c>
       <c r="D443">
-        <v>0.1012491494588993</v>
+        <v>0.002088172856250879</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.00302656146344038</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C444">
-        <v>268.9158144501857</v>
+        <v>0.004035759048993448</v>
       </c>
       <c r="D444">
-        <v>0.08969361780966802</v>
+        <v>0.002784467654886926</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.004035759048993448</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C445">
-        <v>269.5591134192579</v>
+        <v>0.008022982269364043</v>
       </c>
       <c r="D445">
-        <v>0.09270488991803111</v>
+        <v>0.005535448066540842</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.008022982269364043</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C446">
-        <v>270.2024123883301</v>
+        <v>-0.002382793037459585</v>
       </c>
       <c r="D446">
-        <v>0.07950408964408692</v>
+        <v>-0.001644005516818643</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.002382793037459585</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C447">
-        <v>270.8457113574023</v>
+        <v>-0.001215242764065039</v>
       </c>
       <c r="D447">
-        <v>0.07962090377999678</v>
+        <v>-0.0008384554499650898</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>-0.001215242764065039</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C448">
-        <v>271.4890103264745</v>
+        <v>0.007958978514944981</v>
       </c>
       <c r="D448">
-        <v>0.08404415963737034</v>
+        <v>0.005491288744389125</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.007958978514944981</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C449">
-        <v>272.1323092955467</v>
+        <v>-0.01101808245258606</v>
       </c>
       <c r="D449">
-        <v>0.08509697391499353</v>
+        <v>-0.0076019142460338</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.01101808245258606</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C450">
-        <v>272.7756082646189</v>
+        <v>0.0001016370831026236</v>
       </c>
       <c r="D450">
-        <v>0.0898373325475967</v>
+        <v>7.012439717056298e-05</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.0001016370831026236</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C451">
-        <v>273.4189072336911</v>
+        <v>-0.0006680900136659673</v>
       </c>
       <c r="D451">
-        <v>0.09553120689722383</v>
+        <v>-0.0004609479929357573</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>-0.0006680900136659673</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C452">
-        <v>274.0622062027633</v>
+        <v>-0.003245126067916715</v>
       </c>
       <c r="D452">
-        <v>0.09841130507582946</v>
+        <v>-0.002238971272181903</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>-0.003245126067916715</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C453">
-        <v>274.7055051718355</v>
+        <v>0.004943523160673813</v>
       </c>
       <c r="D453">
-        <v>0.09755052496927537</v>
+        <v>0.003410778536323605</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.004943523160673813</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C454">
-        <v>275.3488041409076</v>
+        <v>-0.008828214204182672</v>
       </c>
       <c r="D454">
-        <v>0.09664119615462599</v>
+        <v>-0.006091016981821772</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.008828214204182672</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C455">
-        <v>275.9921031099798</v>
+        <v>-0.00307755679917765</v>
       </c>
       <c r="D455">
-        <v>0.09386737523885996</v>
+        <v>-0.00212335703379635</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.00307755679917765</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C456">
-        <v>276.635402079052</v>
+        <v>0.00161323473816477</v>
       </c>
       <c r="D456">
-        <v>0.09487569681622894</v>
+        <v>0.001113049588349464</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.00161323473816477</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C457">
-        <v>277.2787010481242</v>
+        <v>-0.005731432672050119</v>
       </c>
       <c r="D457">
-        <v>0.09375312574257996</v>
+        <v>-0.003954395864011259</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.005731432672050119</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C458">
-        <v>277.9220000171964</v>
+        <v>-0.004076032403273366</v>
       </c>
       <c r="D458">
-        <v>0.09626192857311162</v>
+        <v>-0.002812254212752466</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>-0.004076032403273366</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C459">
-        <v>278.5652989862686</v>
+        <v>-0.004434531297325073</v>
       </c>
       <c r="D459">
-        <v>0.0954267501384842</v>
+        <v>-0.003059600142646046</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>-0.004434531297325073</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C460">
-        <v>279.2085979553408</v>
+        <v>0.002494063050548334</v>
       </c>
       <c r="D460">
-        <v>0.08751479707654033</v>
+        <v>0.001720776143767182</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.002494063050548334</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C461">
-        <v>279.851896924413</v>
+        <v>-0.004085792346413264</v>
       </c>
       <c r="D461">
-        <v>0.08800495649728178</v>
+        <v>-0.002818988075120528</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.004085792346413264</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C462">
-        <v>280.4951958934852</v>
+        <v>-0.002952141699713806</v>
       </c>
       <c r="D462">
-        <v>0.08783200179662987</v>
+        <v>-0.002036827019577935</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>-0.002952141699713806</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C463">
-        <v>281.1384948625574</v>
+        <v>0.009022796424006607</v>
       </c>
       <c r="D463">
-        <v>0.08765900047536569</v>
+        <v>0.006225268777020243</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.009022796424006607</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C464">
-        <v>281.7817938316296</v>
+        <v>0.009235389651469639</v>
       </c>
       <c r="D464">
-        <v>0.08040884357386799</v>
+        <v>0.006371947247744721</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.009235389651469639</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C465">
-        <v>282.4097373167159</v>
+        <v>-0.01812380857902518</v>
       </c>
       <c r="D465">
-        <v>0.06983248011227992</v>
+        <v>-0.01244780701831633</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.01812380857902518</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C466">
-        <v>283.0530362857881</v>
+        <v>0.004691872319620316</v>
       </c>
       <c r="D466">
-        <v>0.0760484728088177</v>
+        <v>0.003237152306726643</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.004691872319620316</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C467">
-        <v>283.6963352548603</v>
+        <v>-0.02056820744632848</v>
       </c>
       <c r="D467">
-        <v>0.07492186964513584</v>
+        <v>-0.01419101280776167</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.02056820744632848</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C468">
-        <v>284.3396342239325</v>
+        <v>0.0001820084638959329</v>
       </c>
       <c r="D468">
-        <v>0.07139213141017207</v>
+        <v>0.0001255765456959774</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.0001820084638959329</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C469">
-        <v>284.9829331930047</v>
+        <v>0.006891888535138335</v>
       </c>
       <c r="D469">
-        <v>0.06796182906160661</v>
+        <v>0.004755051150034574</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.006891888535138335</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C470">
-        <v>285.6262321620769</v>
+        <v>0.001640393159144438</v>
       </c>
       <c r="D470">
-        <v>0.08163260817521686</v>
+        <v>0.001131787511961268</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.001640393159144438</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C471">
-        <v>286.2695311311491</v>
+        <v>0.00738596734304231</v>
       </c>
       <c r="D471">
-        <v>0.08367671709789244</v>
+        <v>0.005095940297001073</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.00738596734304231</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C472">
-        <v>286.9128301002212</v>
+        <v>0.00887164310997246</v>
       </c>
       <c r="D472">
-        <v>0.08366704471599708</v>
+        <v>0.006120980709088631</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.00887164310997246</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C473">
-        <v>287.5561290692934</v>
+        <v>0.004487489816831669</v>
       </c>
       <c r="D473">
-        <v>0.09187461646101736</v>
+        <v>0.003096138816740971</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.004487489816831669</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C474">
-        <v>288.1994280383656</v>
+        <v>-0.001341184127467088</v>
       </c>
       <c r="D474">
-        <v>0.09071807966049465</v>
+        <v>-0.0009253485594268225</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>-0.001341184127467088</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C475">
-        <v>288.8427270074378</v>
+        <v>-0.001416828018642846</v>
       </c>
       <c r="D475">
-        <v>0.09528428170032004</v>
+        <v>-0.0009775389815287608</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>-0.001416828018642846</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C476">
-        <v>289.48602597651</v>
+        <v>-0.004321898887225117</v>
       </c>
       <c r="D476">
-        <v>0.09810874475699063</v>
+        <v>-0.002981889531331551</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.004321898887225117</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C477">
-        <v>290.1293249455822</v>
+        <v>0.001571068946241816</v>
       </c>
       <c r="D477">
-        <v>0.09853417947461246</v>
+        <v>0.001083957345148909</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.001571068946241816</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C478">
-        <v>290.7726239146544</v>
+        <v>-0.001749081437254496</v>
       </c>
       <c r="D478">
-        <v>0.09819385426417784</v>
+        <v>-0.001206776873612652</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.001749081437254496</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C479">
-        <v>291.4159228837266</v>
+        <v>0.003908973394754156</v>
       </c>
       <c r="D479">
-        <v>0.09515128261900593</v>
+        <v>0.002696992027861811</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.003908973394754156</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C480">
-        <v>292.0592218527988</v>
+        <v>-0.001301294083815741</v>
       </c>
       <c r="D480">
-        <v>0.09674545545986322</v>
+        <v>-0.0008978264663209651</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>-0.001301294083815741</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C481">
-        <v>292.702520821871</v>
+        <v>-0.01232763836332573</v>
       </c>
       <c r="D481">
-        <v>0.1041423846199031</v>
+        <v>-0.008505440951036182</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.01232763836332573</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C482">
-        <v>293.3458197909432</v>
+        <v>0.0007637188987308363</v>
       </c>
       <c r="D482">
-        <v>0.1066949699590323</v>
+        <v>0.000526927040273194</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.0007637188987308363</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C483">
-        <v>293.9891187600153</v>
+        <v>-0.0002694812502275212</v>
       </c>
       <c r="D483">
-        <v>0.1038143946546591</v>
+        <v>-0.0001859283014044581</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>-0.0002694812502275212</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C484">
-        <v>294.6324177290875</v>
+        <v>-0.0002695538899466499</v>
       </c>
       <c r="D484">
-        <v>0.1100177209220811</v>
+        <v>-0.0001859784191012577</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.0002695538899466499</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C485">
-        <v>295.2757166981597</v>
+        <v>-0.01129649173336666</v>
       </c>
       <c r="D485">
-        <v>0.1212902775043883</v>
+        <v>-0.007794002432603624</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.01129649173336666</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C486">
-        <v>295.9190156672319</v>
+        <v>-0.01647906438938307</v>
       </c>
       <c r="D486">
-        <v>0.1278967893044513</v>
+        <v>-0.01136971291348039</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.01647906438938307</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C487">
-        <v>296.5623146363041</v>
+        <v>0.009685157309712977</v>
       </c>
       <c r="D487">
-        <v>0.1205692546956161</v>
+        <v>0.00668226396422589</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.009685157309712977</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C488">
-        <v>297.2056136053763</v>
+        <v>-0.001755363849117231</v>
       </c>
       <c r="D488">
-        <v>0.1175228720628444</v>
+        <v>-0.001211111416982089</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.001755363849117231</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C489">
-        <v>297.8489125744485</v>
+        <v>-0.005499695983679942</v>
       </c>
       <c r="D489">
-        <v>0.1159702962122493</v>
+        <v>-0.003794509382835357</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.005499695983679942</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C490">
-        <v>298.4922115435207</v>
+        <v>-0.005344764623716358</v>
       </c>
       <c r="D490">
-        <v>0.1241053910141336</v>
+        <v>-0.003687614656141047</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.005344764623716358</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C491">
-        <v>299.1355105125929</v>
+        <v>0.02130048291971143</v>
       </c>
       <c r="D491">
-        <v>0.1260289521781536</v>
+        <v>0.0146962454902258</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.02130048291971143</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C492">
-        <v>299.7788094816651</v>
+        <v>0.003184932389854289</v>
       </c>
       <c r="D492">
-        <v>0.1249165208569743</v>
+        <v>0.002197440708151996</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.003184932389854289</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C493">
-        <v>300.4221084507373</v>
+        <v>-1.507056793492723e-05</v>
       </c>
       <c r="D493">
-        <v>0.125393821806404</v>
+        <v>-1.039792228578338e-05</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>-1.507056793492723e-05</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C494">
-        <v>301.0654074198094</v>
+        <v>0.01278824274126844</v>
       </c>
       <c r="D494">
-        <v>0.1251237736154801</v>
+        <v>0.008823234450725083</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.01278824274126844</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C495">
-        <v>301.7087063888816</v>
+        <v>-0.00180200354060478</v>
       </c>
       <c r="D495">
-        <v>0.1279903947474174</v>
+        <v>-0.001243290422419338</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>-0.00180200354060478</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C496">
-        <v>302.3520053579538</v>
+        <v>0.007114613421002502</v>
       </c>
       <c r="D496">
-        <v>0.1251395782371545</v>
+        <v>0.004908719947675461</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.007114613421002502</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C497">
-        <v>302.995304327026</v>
+        <v>0.004400804562489924</v>
       </c>
       <c r="D497">
-        <v>0.1246726367631087</v>
+        <v>0.003036330417889598</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.004400804562489924</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C498">
-        <v>303.6386032960982</v>
+        <v>0.0006628711400313847</v>
       </c>
       <c r="D498">
-        <v>0.1293170750133478</v>
+        <v>0.0004573472366334052</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.0006628711400313847</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C499">
-        <v>304.2819022651704</v>
+        <v>-0.0005302617555127398</v>
       </c>
       <c r="D499">
-        <v>0.133052859157573</v>
+        <v>-0.0003658535331084827</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.0005302617555127398</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C500">
-        <v>304.9252012342426</v>
+        <v>-0.004740640224042636</v>
       </c>
       <c r="D500">
-        <v>0.1302999506542729</v>
+        <v>-0.00327079967041017</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.004740640224042636</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C501">
-        <v>305.5685002033148</v>
+        <v>0.002483885599025015</v>
       </c>
       <c r="D501">
-        <v>0.1336180145127589</v>
+        <v>0.001713754221934923</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.002483885599025015</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C502">
-        <v>306.211799172387</v>
+        <v>0.01152517804013709</v>
       </c>
       <c r="D502">
-        <v>0.1362909842127923</v>
+        <v>0.00795178430624561</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.01152517804013709</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C503">
-        <v>306.8550981414592</v>
+        <v>0.003977191055855478</v>
       </c>
       <c r="D503">
-        <v>0.1313540782412631</v>
+        <v>0.002744058730438131</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.003977191055855478</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C504">
-        <v>307.4983971105314</v>
+        <v>-0.00448823322795544</v>
+      </c>
+      <c r="D504">
+        <v>-0.003096651732453553</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>-0.00448823322795544</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C505">
-        <v>308.1416960796035</v>
+        <v>0.009665421707609312</v>
+      </c>
+      <c r="D505">
+        <v>0.006668647406586979</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.009665421707609312</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C506">
-        <v>308.7849950486757</v>
+        <v>0.01756380502877608</v>
+      </c>
+      <c r="D506">
+        <v>0.01211812856160599</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.01756380502877608</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C507">
-        <v>309.4282940177479</v>
+        <v>0.01029362632419506</v>
+      </c>
+      <c r="D507">
+        <v>0.007102076512313676</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.01029362632419506</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C508">
-        <v>310.0715929868201</v>
+        <v>-0.01141705417679528</v>
+      </c>
+      <c r="D508">
+        <v>-0.007877184361962081</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.01141705417679528</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C509">
-        <v>310.6995364719065</v>
+        <v>-0.004777976242961834</v>
+      </c>
+      <c r="D509">
+        <v>-0.003281613020307457</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>-0.004777976242961834</v>
+        <v>0.643298969072165</v>
       </c>
       <c r="C510">
-        <v>311.3428354409787</v>
+        <v>-0.00241907320075363</v>
+      </c>
+      <c r="D510">
+        <v>-0.00166903697681908</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>-0.00241907320075363</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C511">
-        <v>311.970778926065</v>
+        <v>0.01275916205650152</v>
+      </c>
+      <c r="D511">
+        <v>0.008763256701936411</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.01275916205650152</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C512">
-        <v>312.3327967302193</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>0.003319657521994479</v>
+      </c>
+      <c r="D512">
+        <v>0.002093296094929377</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.003319657521994479</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C513">
-        <v>312.6948145343736</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.00191981990078105</v>
+      </c>
+      <c r="D513">
+        <v>-0.001210592199540564</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.00191981990078105</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C514">
-        <v>313.3227580194599</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.0007486034658237273</v>
+      </c>
+      <c r="D514">
+        <v>0.0005141563615166881</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.0007486034658237273</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C515">
-        <v>313.6847758236142</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>-0.0004660457515308636</v>
+      </c>
+      <c r="D515">
+        <v>-0.0002938772283810324</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>-0.0004660457515308636</v>
+        <v>0.6279434850863422</v>
       </c>
       <c r="C516">
-        <v>314.3127193087005</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.004496036551228322</v>
+      </c>
+      <c r="D516">
+        <v>0.003087971001953546</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.004496036551228322</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C517">
-        <v>314.6747371128548</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>-0.004919903067881926</v>
+      </c>
+      <c r="D517">
+        <v>-0.003102372401729164</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>-0.004919903067881926</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C518">
-        <v>315.0367549170091</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>-0.0008058416886562725</v>
+      </c>
+      <c r="D518">
+        <v>-0.0005081443639348636</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>-0.0008058416886562725</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C519">
-        <v>315.3987727211634</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.008015312775718542</v>
+      </c>
+      <c r="D519">
+        <v>0.0050542632250114</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.008015312775718542</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C520">
-        <v>315.7607905253176</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.00644716901489506</v>
+      </c>
+      <c r="D520">
+        <v>0.004065429530851451</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.00644716901489506</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C521">
-        <v>316.1228083294719</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.004750934668094509</v>
+      </c>
+      <c r="D521">
+        <v>-0.002995824997637624</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.004750934668094509</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C522">
-        <v>316.4848261336262</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>0.00572627263032377</v>
+      </c>
+      <c r="D522">
+        <v>0.003610849630161835</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.00572627263032377</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C523">
-        <v>316.8468439377805</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.00461297729271859</v>
+      </c>
+      <c r="D523">
+        <v>0.00290883239878435</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.00461297729271859</v>
+        <v>0.3620178041543027</v>
       </c>
       <c r="C524">
-        <v>317.2088617419348</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.008520049869127355</v>
       </c>
-      <c r="C525">
-        <v>317.570879546089</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>317.9328973502433</v>
+      <c r="D524">
+        <v>-0.005372538281880483</v>
       </c>
     </row>
   </sheetData>
